--- a/example_2/main_results.xlsx
+++ b/example_2/main_results.xlsx
@@ -696,67 +696,67 @@
     </row>
     <row r="3" spans="1:68">
       <c r="A3">
-        <v>2083.193790780678</v>
+        <v>2175.94458490076</v>
       </c>
       <c r="B3">
-        <v>2067.521828106709</v>
+        <v>2155.626097077259</v>
       </c>
       <c r="C3">
-        <v>2079.357518805974</v>
+        <v>2170.970910127081</v>
       </c>
       <c r="E3">
-        <v>1844.299539315883</v>
+        <v>1938.365459088028</v>
       </c>
       <c r="F3">
-        <v>1817.216829493411</v>
+        <v>1903.901605088661</v>
       </c>
       <c r="G3">
-        <v>1840.61787466958</v>
+        <v>1931.957914442643</v>
       </c>
       <c r="I3">
         <v>2201.803857509989</v>
       </c>
       <c r="K3">
-        <v>7162.475999001912</v>
+        <v>7080.613292186763</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5632509140825479</v>
+        <v>0.5539559550270587</v>
       </c>
       <c r="Q3">
-        <v>0.2676040345068565</v>
+        <v>0.2546760112345612</v>
       </c>
       <c r="R3">
-        <v>0.2869492734516212</v>
+        <v>0.2782930239744514</v>
       </c>
       <c r="S3">
-        <v>0.2718008224921216</v>
+        <v>0.261509316169149</v>
       </c>
       <c r="U3">
-        <v>24040895.55342518</v>
+        <v>24552537.47101953</v>
       </c>
       <c r="W3">
         <v>55045096.43774974</v>
       </c>
       <c r="Y3">
-        <v>6306465.664279223</v>
+        <v>6599180.483476446</v>
       </c>
       <c r="Z3">
-        <v>6256770.438667653</v>
+        <v>6534751.295028148</v>
       </c>
       <c r="AA3">
-        <v>6295791.174884196</v>
+        <v>6585341.152225649</v>
       </c>
       <c r="AC3">
-        <v>1687635.655240083</v>
+        <v>1680652.962948744</v>
       </c>
       <c r="AD3">
-        <v>1795375.731529265</v>
+        <v>1818575.698814346</v>
       </c>
       <c r="AE3">
-        <v>1711201.219572165</v>
+        <v>1722128.061459085</v>
       </c>
       <c r="AG3">
         <v>5168.508393521503</v>
@@ -765,79 +765,79 @@
         <v>16</v>
       </c>
       <c r="AK3">
-        <v>649563.6125243406</v>
+        <v>762781.5148275392</v>
       </c>
       <c r="AL3">
-        <v>323175.0049983257</v>
+        <v>323621.2916764856</v>
       </c>
       <c r="AM3">
-        <v>143241.8712838131</v>
+        <v>44639.66795242288</v>
       </c>
       <c r="AN3">
-        <v>13789.1841318665</v>
+        <v>70942.06129460354</v>
       </c>
       <c r="AO3">
-        <v>397609.4462276906</v>
+        <v>403733.0286132437</v>
       </c>
       <c r="AP3">
-        <v>173689.2906842621</v>
+        <v>59197.06351470351</v>
       </c>
       <c r="AQ3">
-        <v>631728.3755689781</v>
+        <v>756982.3701117493</v>
       </c>
       <c r="AR3">
-        <v>287129.0441415407</v>
+        <v>276051.021283193</v>
       </c>
       <c r="AS3">
-        <v>471140.3879593685</v>
+        <v>544833.8669924467</v>
       </c>
       <c r="AT3">
-        <v>262801.8100884319</v>
+        <v>440735.7725203716</v>
       </c>
       <c r="AU3">
-        <v>63193.72125962767</v>
+        <v>182153.416882682</v>
       </c>
       <c r="AV3">
-        <v>100604.9060736478</v>
+        <v>78728.46180559862</v>
       </c>
       <c r="AW3">
-        <v>292193.0683269873</v>
+        <v>235758.5682215635</v>
       </c>
       <c r="AX3">
-        <v>88283.14547236037</v>
+        <v>66821.20072680367</v>
       </c>
       <c r="AY3">
-        <v>436438.5176305705</v>
+        <v>778026.0649286219</v>
       </c>
       <c r="AZ3">
-        <v>219558.9094844159</v>
+        <v>258914.4757339353</v>
       </c>
       <c r="BA3">
-        <v>645262.0623736467</v>
+        <v>680744.7437458916</v>
       </c>
       <c r="BB3">
-        <v>193044.0223126248</v>
+        <v>271602.5777345058</v>
       </c>
       <c r="BC3">
-        <v>497601.9878948739</v>
+        <v>505766.8196261799</v>
       </c>
       <c r="BD3">
-        <v>402551.061207784</v>
+        <v>209451.7415754028</v>
       </c>
       <c r="BE3">
-        <v>81811.23567787466</v>
+        <v>116663.6532923214</v>
       </c>
       <c r="BF3">
-        <v>6027.588214865988</v>
+        <v>23895.19296265519</v>
       </c>
       <c r="BG3">
-        <v>365325.0570652511</v>
+        <v>350125.3278306274</v>
       </c>
       <c r="BH3">
-        <v>22746.85516018207</v>
+        <v>24805.74220794523</v>
       </c>
       <c r="BJ3">
-        <v>2087250</v>
+        <v>2049000</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -846,78 +846,78 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>1604670.844697178</v>
+        <v>2080434.065408486</v>
       </c>
       <c r="BO3">
-        <v>1554975.619085604</v>
+        <v>2016004.8769602</v>
       </c>
       <c r="BP3">
-        <v>1593996.355302153</v>
+        <v>2066594.734157697</v>
       </c>
     </row>
     <row r="4" spans="1:68">
       <c r="A4">
-        <v>1961.625836023588</v>
+        <v>1412.606118800596</v>
       </c>
       <c r="B4">
-        <v>1939.392078350136</v>
+        <v>1400.758836230783</v>
       </c>
       <c r="C4">
-        <v>1956.037287978573</v>
+        <v>1409.62825474285</v>
       </c>
       <c r="E4">
-        <v>1725.415247371822</v>
+        <v>1208.443564948525</v>
       </c>
       <c r="F4">
-        <v>1693.890631388823</v>
+        <v>1190.637577726906</v>
       </c>
       <c r="G4">
-        <v>1724.797605353656</v>
+        <v>1207.337599314332</v>
       </c>
       <c r="I4">
         <v>2503.955409587573</v>
       </c>
       <c r="K4">
-        <v>7703.076759871999</v>
+        <v>7611.767710746781</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5190908482612298</v>
+        <v>0.5099743671154854</v>
       </c>
       <c r="Q4">
-        <v>0.2531663668908184</v>
+        <v>0.3077199540752515</v>
       </c>
       <c r="R4">
-        <v>0.269070438612801</v>
+        <v>0.321854592607367</v>
       </c>
       <c r="S4">
-        <v>0.2521706348452117</v>
+        <v>0.3084999787228582</v>
       </c>
       <c r="U4">
-        <v>30104376.80041162</v>
+        <v>30675058.35744387</v>
       </c>
       <c r="W4">
         <v>62598885.23968934</v>
       </c>
       <c r="Y4">
-        <v>5613543.512865803</v>
+        <v>4007472.007156133</v>
       </c>
       <c r="Z4">
-        <v>5546696.718847212</v>
+        <v>3971852.618420489</v>
       </c>
       <c r="AA4">
-        <v>5599184.882130924</v>
+        <v>3999820.994757318</v>
       </c>
       <c r="AC4">
-        <v>1421160.416535757</v>
+        <v>1233179.101999941</v>
       </c>
       <c r="AD4">
-        <v>1492452.118992404</v>
+        <v>1278359.00639823</v>
       </c>
       <c r="AE4">
-        <v>1411950.006342667</v>
+        <v>1233944.691777874</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -926,79 +926,79 @@
         <v>17</v>
       </c>
       <c r="AK4">
-        <v>753669.6000000001</v>
+        <v>885123.6000000002</v>
       </c>
       <c r="AL4">
-        <v>797487.6000000001</v>
+        <v>394362.0000000001</v>
       </c>
       <c r="AM4">
-        <v>709851.6000000001</v>
+        <v>385598.4000000001</v>
       </c>
       <c r="AN4">
-        <v>105163.2</v>
+        <v>271671.5999999999</v>
       </c>
       <c r="AO4">
+        <v>148981.2</v>
+      </c>
+      <c r="AP4">
+        <v>499525.1999999999</v>
+      </c>
+      <c r="AQ4">
+        <v>920178</v>
+      </c>
+      <c r="AR4">
+        <v>359307.5999999999</v>
+      </c>
+      <c r="AS4">
+        <v>368071.2</v>
+      </c>
+      <c r="AT4">
+        <v>464470.8</v>
+      </c>
+      <c r="AU4">
+        <v>192799.2</v>
+      </c>
+      <c r="AV4">
+        <v>517052.4</v>
+      </c>
+      <c r="AW4">
+        <v>517052.4</v>
+      </c>
+      <c r="AX4">
+        <v>560870.4</v>
+      </c>
+      <c r="AY4">
+        <v>534579.5999999999</v>
+      </c>
+      <c r="AZ4">
+        <v>157744.8</v>
+      </c>
+      <c r="BA4">
+        <v>289198.8</v>
+      </c>
+      <c r="BB4">
+        <v>350544</v>
+      </c>
+      <c r="BC4">
+        <v>219090</v>
+      </c>
+      <c r="BD4">
         <v>490761.5999999999</v>
       </c>
-      <c r="AP4">
-        <v>429416.4000000001</v>
-      </c>
-      <c r="AQ4">
-        <v>972759.6000000002</v>
-      </c>
-      <c r="AR4">
+      <c r="BE4">
+        <v>718615.1999999998</v>
+      </c>
+      <c r="BF4">
+        <v>280435.2</v>
+      </c>
+      <c r="BG4">
+        <v>630979.2</v>
+      </c>
+      <c r="BH4">
         <v>578397.6000000001</v>
       </c>
-      <c r="AS4">
-        <v>701088</v>
-      </c>
-      <c r="AT4">
-        <v>560870.4</v>
-      </c>
-      <c r="AU4">
-        <v>464470.8</v>
-      </c>
-      <c r="AV4">
-        <v>525815.9999999999</v>
-      </c>
-      <c r="AW4">
-        <v>368071.1999999999</v>
-      </c>
-      <c r="AX4">
-        <v>648506.4</v>
-      </c>
-      <c r="AY4">
-        <v>368071.2</v>
-      </c>
-      <c r="AZ4">
-        <v>219090</v>
-      </c>
-      <c r="BA4">
-        <v>464470.8</v>
-      </c>
-      <c r="BB4">
-        <v>525815.9999999999</v>
-      </c>
-      <c r="BC4">
-        <v>718615.1999999998</v>
-      </c>
-      <c r="BD4">
-        <v>701088</v>
-      </c>
-      <c r="BE4">
-        <v>481997.9999999999</v>
-      </c>
-      <c r="BF4">
-        <v>560870.3999999999</v>
-      </c>
-      <c r="BG4">
-        <v>823778.3999999999</v>
-      </c>
-      <c r="BH4">
-        <v>630979.2</v>
-      </c>
       <c r="BJ4">
-        <v>1479500</v>
+        <v>1530100</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -1007,78 +1007,78 @@
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>2158499.133529272</v>
+        <v>1150158.670307388</v>
       </c>
       <c r="BO4">
-        <v>2091652.339510675</v>
+        <v>1114539.281571741</v>
       </c>
       <c r="BP4">
-        <v>2144140.502794387</v>
+        <v>1142507.657908575</v>
       </c>
     </row>
     <row r="5" spans="1:68">
       <c r="A5">
-        <v>1640.381640935478</v>
+        <v>1047.657623953452</v>
       </c>
       <c r="B5">
-        <v>1619.930336408835</v>
+        <v>1039.795173982533</v>
       </c>
       <c r="C5">
-        <v>1635.241119948922</v>
+        <v>1045.681364246957</v>
       </c>
       <c r="E5">
-        <v>1455.644178379615</v>
+        <v>893.7307650712401</v>
       </c>
       <c r="F5">
-        <v>1432.052703409207</v>
+        <v>886.5223776286467</v>
       </c>
       <c r="G5">
-        <v>1452.130016745075</v>
+        <v>893.6953257086524</v>
       </c>
       <c r="I5">
         <v>2295.762614109557</v>
       </c>
       <c r="K5">
-        <v>7288.768932439052</v>
+        <v>7201.119960238411</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5437197957274523</v>
+        <v>0.5341751490311969</v>
       </c>
       <c r="Q5">
-        <v>0.2377528166912757</v>
+        <v>0.3110768339671198</v>
       </c>
       <c r="R5">
-        <v>0.2473733434689125</v>
+        <v>0.3161292554730697</v>
       </c>
       <c r="S5">
-        <v>0.2397093713472059</v>
+        <v>0.3128983610297377</v>
       </c>
       <c r="U5">
-        <v>26187775.86317965</v>
+        <v>26735581.93943335</v>
       </c>
       <c r="W5">
         <v>57394065.35273891</v>
       </c>
       <c r="Y5">
-        <v>4726527.028668344</v>
+        <v>2993619.434559182</v>
       </c>
       <c r="Z5">
-        <v>4665039.260330569</v>
+        <v>2969980.624538544</v>
       </c>
       <c r="AA5">
-        <v>4713319.511789848</v>
+        <v>2988541.83960371</v>
       </c>
       <c r="AC5">
-        <v>1123745.114233345</v>
+        <v>931245.6558051099</v>
       </c>
       <c r="AD5">
-        <v>1154006.359241715</v>
+        <v>938897.7636048124</v>
       </c>
       <c r="AE5">
-        <v>1129826.857129664</v>
+        <v>935109.8434807982</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1087,79 +1087,79 @@
         <v>18</v>
       </c>
       <c r="AK5">
-        <v>757460.6070577832</v>
+        <v>348168.3032402615</v>
       </c>
       <c r="AL5">
-        <v>706925.7743384324</v>
+        <v>459940.0451724287</v>
       </c>
       <c r="AM5">
-        <v>632513.658189038</v>
+        <v>517805.4783184095</v>
       </c>
       <c r="AN5">
-        <v>814737.3464509977</v>
+        <v>771711.3271203549</v>
       </c>
       <c r="AO5">
-        <v>389691.4964622661</v>
+        <v>523952.1901338669</v>
       </c>
       <c r="AP5">
-        <v>507923.7690437127</v>
+        <v>438438.2141863845</v>
       </c>
       <c r="AQ5">
-        <v>515204.2519493937</v>
+        <v>563698.3248730332</v>
       </c>
       <c r="AR5">
-        <v>655471.8367076556</v>
+        <v>828415.5154755185</v>
       </c>
       <c r="AS5">
-        <v>528607.4227906757</v>
+        <v>530702.0568534385</v>
       </c>
       <c r="AT5">
-        <v>850902.1321697228</v>
+        <v>880390.6016969433</v>
       </c>
       <c r="AU5">
-        <v>358380.8775131353</v>
+        <v>403846.384636547</v>
       </c>
       <c r="AV5">
-        <v>932456.4028789434</v>
+        <v>535614.6952164831</v>
       </c>
       <c r="AW5">
-        <v>388329.026067013</v>
+        <v>678875.8847158682</v>
       </c>
       <c r="AX5">
-        <v>738628.4561360208</v>
+        <v>559090.8400594085</v>
       </c>
       <c r="AY5">
-        <v>484395.8984144807</v>
+        <v>620649.1625595485</v>
       </c>
       <c r="AZ5">
-        <v>791665.1037670084</v>
+        <v>353330.9838125813</v>
       </c>
       <c r="BA5">
-        <v>791298.3870640052</v>
+        <v>553658.7188225824</v>
       </c>
       <c r="BB5">
-        <v>674824.7112488131</v>
+        <v>681130.40994551</v>
       </c>
       <c r="BC5">
-        <v>702818.7126282522</v>
+        <v>945216.9362108799</v>
       </c>
       <c r="BD5">
-        <v>526201.7849450127</v>
+        <v>522614.7769681264</v>
       </c>
       <c r="BE5">
-        <v>386947.5268123764</v>
+        <v>948200.5722552495</v>
       </c>
       <c r="BF5">
-        <v>839867.3592114148</v>
+        <v>673656.1616983465</v>
       </c>
       <c r="BG5">
-        <v>541033.4364372717</v>
+        <v>421506.8735450211</v>
       </c>
       <c r="BH5">
-        <v>366110.9581454083</v>
+        <v>761392.6704992419</v>
       </c>
       <c r="BJ5">
-        <v>805200</v>
+        <v>821700</v>
       </c>
       <c r="BK5">
         <v>0</v>
@@ -1168,138 +1168,138 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>1985454.899195289</v>
+        <v>763302.8882883211</v>
       </c>
       <c r="BO5">
-        <v>1923967.130857531</v>
+        <v>739664.0782676863</v>
       </c>
       <c r="BP5">
-        <v>1972247.382316792</v>
+        <v>758225.2933328527</v>
       </c>
     </row>
     <row r="6" spans="1:68">
       <c r="A6">
-        <v>1894.682958451196</v>
+        <v>1746.040989413646</v>
       </c>
       <c r="B6">
-        <v>1865.976081455072</v>
+        <v>1723.713418416668</v>
       </c>
       <c r="C6">
-        <v>1887.467364772813</v>
+        <v>1740.428860997137</v>
       </c>
       <c r="E6">
-        <v>1688.819808742908</v>
+        <v>1535.904279452374</v>
       </c>
       <c r="F6">
-        <v>1652.417644666306</v>
+        <v>1505.292010304786</v>
       </c>
       <c r="G6">
-        <v>1683.224932297446</v>
+        <v>1530.581670128937</v>
       </c>
       <c r="Q6">
-        <v>0.2283843457145259</v>
+        <v>0.2538109870899553</v>
       </c>
       <c r="R6">
-        <v>0.2433946869939447</v>
+        <v>0.2712513175540965</v>
       </c>
       <c r="S6">
-        <v>0.2312339699266197</v>
+        <v>0.2582637352136041</v>
       </c>
       <c r="Y6">
-        <v>5423169.662481125</v>
+        <v>4987918.713224716</v>
       </c>
       <c r="Z6">
-        <v>5336861.143621679</v>
+        <v>4920789.865222925</v>
       </c>
       <c r="AA6">
-        <v>5404630.670899382</v>
+        <v>4973499.497550027</v>
       </c>
       <c r="AC6">
-        <v>1238567.055064618</v>
+        <v>1265988.572128025</v>
       </c>
       <c r="AD6">
-        <v>1298963.647581944</v>
+        <v>1334770.734348563</v>
       </c>
       <c r="AE6">
-        <v>1249734.206019234</v>
+        <v>1284474.557320253</v>
       </c>
       <c r="AI6" t="s">
         <v>19</v>
       </c>
       <c r="AK6">
-        <v>453851</v>
+        <v>473673</v>
       </c>
       <c r="AL6">
-        <v>147956</v>
+        <v>149290</v>
       </c>
       <c r="AM6">
-        <v>450265</v>
+        <v>460573</v>
       </c>
       <c r="AN6">
-        <v>202707</v>
+        <v>191837</v>
       </c>
       <c r="AO6">
-        <v>18240</v>
+        <v>22816</v>
       </c>
       <c r="AP6">
-        <v>29664</v>
+        <v>30770</v>
       </c>
       <c r="AQ6">
-        <v>81196</v>
+        <v>80045</v>
       </c>
       <c r="AR6">
-        <v>24951</v>
+        <v>23311</v>
       </c>
       <c r="AS6">
-        <v>518380.5</v>
+        <v>530835.25</v>
       </c>
       <c r="AT6">
-        <v>449634</v>
+        <v>452409</v>
       </c>
       <c r="AU6">
-        <v>247806.5</v>
+        <v>234300.5</v>
       </c>
       <c r="AV6">
-        <v>377712</v>
+        <v>406445</v>
       </c>
       <c r="AW6">
-        <v>208659</v>
+        <v>198847</v>
       </c>
       <c r="AX6">
-        <v>270121</v>
+        <v>262756</v>
       </c>
       <c r="AY6">
-        <v>22608</v>
+        <v>31706</v>
       </c>
       <c r="AZ6">
-        <v>113714</v>
+        <v>97698</v>
       </c>
       <c r="BA6">
-        <v>208731.5</v>
+        <v>197265</v>
       </c>
       <c r="BB6">
-        <v>251011</v>
+        <v>249293</v>
       </c>
       <c r="BC6">
-        <v>709982.75</v>
+        <v>716716</v>
       </c>
       <c r="BD6">
-        <v>201626</v>
+        <v>202724</v>
       </c>
       <c r="BE6">
-        <v>68068</v>
+        <v>79207</v>
       </c>
       <c r="BF6">
-        <v>204027</v>
+        <v>199276</v>
       </c>
       <c r="BG6">
-        <v>34935</v>
+        <v>51965</v>
       </c>
       <c r="BH6">
-        <v>266098</v>
+        <v>248023</v>
       </c>
       <c r="BJ6">
-        <v>1499850</v>
+        <v>1514150</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -1308,63 +1308,63 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>2786922.931898411</v>
+        <v>2167606.724809458</v>
       </c>
       <c r="BO6">
-        <v>2700614.413038961</v>
+        <v>2100477.876807645</v>
       </c>
       <c r="BP6">
-        <v>2768383.940316669</v>
+        <v>2153187.509134767</v>
       </c>
     </row>
     <row r="7" spans="1:68">
       <c r="A7">
-        <v>1296.1535547824</v>
+        <v>1258.209977302822</v>
       </c>
       <c r="B7">
-        <v>1278.875190045166</v>
+        <v>1240.153307847698</v>
       </c>
       <c r="C7">
-        <v>1292.236743030111</v>
+        <v>1254.116732588726</v>
       </c>
       <c r="E7">
-        <v>1150.237135411261</v>
+        <v>1122.003406415942</v>
       </c>
       <c r="F7">
-        <v>1130.83265077066</v>
+        <v>1099.645837986189</v>
       </c>
       <c r="G7">
-        <v>1149.71613107333</v>
+        <v>1119.18169683223</v>
       </c>
       <c r="Q7">
-        <v>0.2565880038748856</v>
+        <v>0.2469760308964442</v>
       </c>
       <c r="R7">
-        <v>0.2646188227071057</v>
+        <v>0.2592557333577183</v>
       </c>
       <c r="S7">
-        <v>0.2524225328742443</v>
+        <v>0.2464441287326558</v>
       </c>
       <c r="Y7">
-        <v>3743066.804280998</v>
+        <v>3631074.800229641</v>
       </c>
       <c r="Z7">
-        <v>3692377.674157197</v>
+        <v>3578102.375956118</v>
       </c>
       <c r="AA7">
-        <v>3732178.825098069</v>
+        <v>3619696.371533967</v>
       </c>
       <c r="AC7">
-        <v>960426.0396808082</v>
+        <v>896788.4420488158</v>
       </c>
       <c r="AD7">
-        <v>977072.6331254784</v>
+        <v>927643.5555074979</v>
       </c>
       <c r="AE7">
-        <v>942086.0321708758</v>
+        <v>892052.9185594443</v>
       </c>
       <c r="BJ7">
-        <v>810000</v>
+        <v>821100</v>
       </c>
       <c r="BK7">
         <v>0</v>
@@ -1373,63 +1373,63 @@
         <v>0</v>
       </c>
       <c r="BN7">
-        <v>1636764.261591054</v>
+        <v>1710492.381482611</v>
       </c>
       <c r="BO7">
-        <v>1586075.131467245</v>
+        <v>1657519.957209078</v>
       </c>
       <c r="BP7">
-        <v>1625876.282408127</v>
+        <v>1699113.952786934</v>
       </c>
     </row>
     <row r="8" spans="1:68">
       <c r="A8">
-        <v>2429.837706209195</v>
+        <v>1857.665021512083</v>
       </c>
       <c r="B8">
-        <v>2383.661345122891</v>
+        <v>1827.65450724272</v>
       </c>
       <c r="C8">
-        <v>2419.370042368836</v>
+        <v>1850.861974072693</v>
       </c>
       <c r="E8">
-        <v>2221.34454095707</v>
+        <v>1667.162564339456</v>
       </c>
       <c r="F8">
-        <v>2172.173324262079</v>
+        <v>1631.888926598394</v>
       </c>
       <c r="G8">
-        <v>2208.96487997747</v>
+        <v>1660.377434777356</v>
       </c>
       <c r="Q8">
-        <v>0.1952171058928531</v>
+        <v>0.233622127027003</v>
       </c>
       <c r="R8">
-        <v>0.2030972540310664</v>
+        <v>0.2453655559569535</v>
       </c>
       <c r="S8">
-        <v>0.1990208719976449</v>
+        <v>0.2360061170908583</v>
       </c>
       <c r="Y8">
-        <v>7027989.44340769</v>
+        <v>5367900.041752301</v>
       </c>
       <c r="Z8">
-        <v>6892522.944618962</v>
+        <v>5279858.905567478</v>
       </c>
       <c r="AA8">
-        <v>6998891.362316271</v>
+        <v>5348988.885540299</v>
       </c>
       <c r="AC8">
-        <v>1371983.759387573</v>
+        <v>1254060.225422511</v>
       </c>
       <c r="AD8">
-        <v>1399852.483398231</v>
+        <v>1295495.515738836</v>
       </c>
       <c r="AE8">
-        <v>1392925.461944969</v>
+        <v>1262394.097238523</v>
       </c>
       <c r="BJ8">
-        <v>1513050</v>
+        <v>1497100</v>
       </c>
       <c r="BK8">
         <v>0</v>
@@ -1438,63 +1438,63 @@
         <v>0</v>
       </c>
       <c r="BN8">
-        <v>4374245.983679215</v>
+        <v>2842869.56405129</v>
       </c>
       <c r="BO8">
-        <v>4238779.484890524</v>
+        <v>2754828.42786644</v>
       </c>
       <c r="BP8">
-        <v>4345147.90258781</v>
+        <v>2823958.407839268</v>
       </c>
     </row>
     <row r="9" spans="1:68">
       <c r="A9">
-        <v>1409.825995252817</v>
+        <v>1685.212268114424</v>
       </c>
       <c r="B9">
-        <v>1404.353515313684</v>
+        <v>1672.496800020556</v>
       </c>
       <c r="C9">
-        <v>1408.48641055246</v>
+        <v>1682.099703663603</v>
       </c>
       <c r="E9">
-        <v>1224.79698871802</v>
+        <v>1484.406717099611</v>
       </c>
       <c r="F9">
-        <v>1208.136298194129</v>
+        <v>1464.508612983865</v>
       </c>
       <c r="G9">
-        <v>1223.953919208836</v>
+        <v>1485.031588087492</v>
       </c>
       <c r="Q9">
-        <v>0.3093379737328728</v>
+        <v>0.2769589459939855</v>
       </c>
       <c r="R9">
-        <v>0.3312159311120989</v>
+        <v>0.2933602743097872</v>
       </c>
       <c r="S9">
-        <v>0.3123066351808226</v>
+        <v>0.2770707184998836</v>
       </c>
       <c r="Y9">
-        <v>4263271.938693684</v>
+        <v>5111705.553303888</v>
       </c>
       <c r="Z9">
-        <v>4245918.903155806</v>
+        <v>5071385.264848231</v>
       </c>
       <c r="AA9">
-        <v>4259544.522396825</v>
+        <v>5103044.791908247</v>
       </c>
       <c r="AC9">
-        <v>1318791.90298772</v>
+        <v>1415732.582274647</v>
       </c>
       <c r="AD9">
-        <v>1406315.982935212</v>
+        <v>1487742.97242649</v>
       </c>
       <c r="AE9">
-        <v>1330284.017192657</v>
+        <v>1413904.287031107</v>
       </c>
       <c r="BJ9">
-        <v>1502050</v>
+        <v>1488850</v>
       </c>
       <c r="BK9">
         <v>0</v>
@@ -1503,63 +1503,63 @@
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>560333.7111752686</v>
+        <v>1301951.85831918</v>
       </c>
       <c r="BO9">
-        <v>542980.6756373849</v>
+        <v>1261631.569863521</v>
       </c>
       <c r="BP9">
-        <v>556606.2948784084</v>
+        <v>1293291.096923547</v>
       </c>
     </row>
     <row r="10" spans="1:68">
       <c r="A10">
-        <v>1889.121764211171</v>
+        <v>1926.966924545229</v>
       </c>
       <c r="B10">
-        <v>1862.63191162655</v>
+        <v>1898.693856748271</v>
       </c>
       <c r="C10">
-        <v>1882.637427743666</v>
+        <v>1920.046082536827</v>
       </c>
       <c r="E10">
-        <v>1701.261586791504</v>
+        <v>1737.522735801593</v>
       </c>
       <c r="F10">
-        <v>1668.855719604476</v>
+        <v>1705.31819081909</v>
       </c>
       <c r="G10">
-        <v>1695.513767169221</v>
+        <v>1731.62182280968</v>
       </c>
       <c r="Q10">
-        <v>0.2314207673113578</v>
+        <v>0.2278649662557024</v>
       </c>
       <c r="R10">
-        <v>0.2451265786880621</v>
+        <v>0.240283904488006</v>
       </c>
       <c r="S10">
-        <v>0.2341830366686919</v>
+        <v>0.2311174664842665</v>
       </c>
       <c r="Y10">
-        <v>5761976.903210186</v>
+        <v>5876348.079556858</v>
       </c>
       <c r="Z10">
-        <v>5677978.540784575</v>
+        <v>5786695.206325174</v>
       </c>
       <c r="AA10">
-        <v>5743934.131135454</v>
+        <v>5857090.723688801</v>
       </c>
       <c r="AC10">
-        <v>1333441.116171222</v>
+        <v>1339013.856854985</v>
       </c>
       <c r="AD10">
-        <v>1391823.453566758</v>
+        <v>1390449.71825784</v>
       </c>
       <c r="AE10">
-        <v>1345131.937254245</v>
+        <v>1353675.969027454</v>
       </c>
       <c r="BJ10">
-        <v>1503700</v>
+        <v>1494350</v>
       </c>
       <c r="BK10">
         <v>0</v>
@@ -1568,63 +1568,63 @@
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>2712327.422361241</v>
+        <v>2894912.942798162</v>
       </c>
       <c r="BO10">
-        <v>2628329.059935624</v>
+        <v>2805260.069566492</v>
       </c>
       <c r="BP10">
-        <v>2694284.650286508</v>
+        <v>2875655.586930111</v>
       </c>
     </row>
     <row r="11" spans="1:68">
       <c r="A11">
-        <v>1638.992360418631</v>
+        <v>1582.99623691301</v>
       </c>
       <c r="B11">
-        <v>1632.744753676989</v>
+        <v>1575.626178790649</v>
       </c>
       <c r="C11">
-        <v>1637.463035780074</v>
+        <v>1581.192152254634</v>
       </c>
       <c r="E11">
-        <v>1413.256873678486</v>
+        <v>1370.076442933738</v>
       </c>
       <c r="F11">
-        <v>1396.479311093478</v>
+        <v>1345.749886179197</v>
       </c>
       <c r="G11">
-        <v>1413.906842519529</v>
+        <v>1368.494821789162</v>
       </c>
       <c r="Q11">
-        <v>0.3226527690074919</v>
+        <v>0.3166449301893268</v>
       </c>
       <c r="R11">
-        <v>0.3446887626132131</v>
+        <v>0.3487437115707908</v>
       </c>
       <c r="S11">
-        <v>0.3246928003793934</v>
+        <v>0.3233302954620041</v>
       </c>
       <c r="Y11">
-        <v>4942416.174514428</v>
+        <v>4769071.365676412</v>
       </c>
       <c r="Z11">
-        <v>4922605.239980087</v>
+        <v>4745701.178496919</v>
       </c>
       <c r="AA11">
-        <v>4938160.803742087</v>
+        <v>4764051.470663616</v>
       </c>
       <c r="AC11">
-        <v>1594684.264294496</v>
+        <v>1510102.269652525</v>
       </c>
       <c r="AD11">
-        <v>1696766.709002055</v>
+        <v>1655033.442994891</v>
       </c>
       <c r="AE11">
-        <v>1603385.260090774</v>
+        <v>1540362.169605862</v>
       </c>
       <c r="BJ11">
-        <v>2083500</v>
+        <v>2040000</v>
       </c>
       <c r="BK11">
         <v>0</v>
@@ -1633,63 +1633,63 @@
         <v>0</v>
       </c>
       <c r="BN11">
-        <v>639699.8637643324</v>
+        <v>754628.9918305598</v>
       </c>
       <c r="BO11">
-        <v>619888.9292299922</v>
+        <v>731258.804651059</v>
       </c>
       <c r="BP11">
-        <v>635444.4929919899</v>
+        <v>749609.0968177627</v>
       </c>
     </row>
     <row r="12" spans="1:68">
       <c r="A12">
-        <v>1980.661217207513</v>
+        <v>1671.178737994952</v>
       </c>
       <c r="B12">
-        <v>1959.709574955452</v>
+        <v>1660.743122578993</v>
       </c>
       <c r="C12">
-        <v>1975.394934239631</v>
+        <v>1668.555702384509</v>
       </c>
       <c r="E12">
-        <v>1742.728994458629</v>
+        <v>1439.457399111365</v>
       </c>
       <c r="F12">
-        <v>1708.659787086758</v>
+        <v>1419.601212734518</v>
       </c>
       <c r="G12">
-        <v>1736.935925805126</v>
+        <v>1438.470230828955</v>
       </c>
       <c r="Q12">
-        <v>0.2538129447186078</v>
+        <v>0.2946029412281073</v>
       </c>
       <c r="R12">
-        <v>0.2746845507862938</v>
+        <v>0.3133338357152265</v>
       </c>
       <c r="S12">
-        <v>0.2588485608197332</v>
+        <v>0.297043934368427</v>
       </c>
       <c r="Y12">
-        <v>5657537.061617452</v>
+        <v>4742167.280490943</v>
       </c>
       <c r="Z12">
-        <v>5594545.005369272</v>
+        <v>4710792.132645368</v>
       </c>
       <c r="AA12">
-        <v>5644006.42505997</v>
+        <v>4735427.927186407</v>
       </c>
       <c r="AC12">
-        <v>1435956.141463785</v>
+        <v>1397056.428628327</v>
       </c>
       <c r="AD12">
-        <v>1536735.081653562</v>
+        <v>1476050.568178885</v>
       </c>
       <c r="AE12">
-        <v>1460942.9403841</v>
+        <v>1406630.142409575</v>
       </c>
       <c r="BJ12">
-        <v>1499300</v>
+        <v>1491050</v>
       </c>
       <c r="BK12">
         <v>0</v>
@@ -1698,63 +1698,63 @@
         <v>0</v>
       </c>
       <c r="BN12">
-        <v>2034028.719359266</v>
+        <v>1013111.106273756</v>
       </c>
       <c r="BO12">
-        <v>1971036.663111092</v>
+        <v>981735.9584281709</v>
       </c>
       <c r="BP12">
-        <v>2020498.082801786</v>
+        <v>1006371.752969218</v>
       </c>
     </row>
     <row r="13" spans="1:68">
       <c r="A13">
-        <v>1210.665563605813</v>
+        <v>1235.532795237528</v>
       </c>
       <c r="B13">
-        <v>1202.159822273626</v>
+        <v>1225.543909933567</v>
       </c>
       <c r="C13">
-        <v>1208.527609923329</v>
+        <v>1233.022047110418</v>
       </c>
       <c r="E13">
-        <v>1027.57434064366</v>
+        <v>1050.606048732778</v>
       </c>
       <c r="F13">
-        <v>1013.078111168826</v>
+        <v>1035.677520190393</v>
       </c>
       <c r="G13">
-        <v>1026.306465491056</v>
+        <v>1049.312846940547</v>
       </c>
       <c r="Q13">
-        <v>0.3216253040405686</v>
+        <v>0.3178111492338315</v>
       </c>
       <c r="R13">
-        <v>0.3409252999563694</v>
+        <v>0.3351059596522701</v>
       </c>
       <c r="S13">
-        <v>0.3264338759581764</v>
+        <v>0.3213077687986829</v>
       </c>
       <c r="Y13">
-        <v>3432506.841557433</v>
+        <v>3496441.125503746</v>
       </c>
       <c r="Z13">
-        <v>3406933.94708056</v>
+        <v>3466409.091863889</v>
       </c>
       <c r="AA13">
-        <v>3427013.807014694</v>
+        <v>3489990.271912589</v>
       </c>
       <c r="AC13">
-        <v>1103981.056537241</v>
+        <v>1111207.972324777</v>
       </c>
       <c r="AD13">
-        <v>1161509.977839977</v>
+        <v>1161614.345276403</v>
       </c>
       <c r="AE13">
-        <v>1118693.399985992</v>
+        <v>1121360.987397343</v>
       </c>
       <c r="BJ13">
-        <v>1472900</v>
+        <v>1513600</v>
       </c>
       <c r="BK13">
         <v>0</v>
@@ -1763,63 +1763,63 @@
         <v>0</v>
       </c>
       <c r="BN13">
-        <v>825754.9427846567</v>
+        <v>969741.6239844712</v>
       </c>
       <c r="BO13">
-        <v>800182.0483077776</v>
+        <v>939709.5903446157</v>
       </c>
       <c r="BP13">
-        <v>820261.9082419128</v>
+        <v>963290.770393315</v>
       </c>
     </row>
     <row r="14" spans="1:68">
       <c r="A14">
-        <v>1811.681635211665</v>
+        <v>1394.562632097113</v>
       </c>
       <c r="B14">
-        <v>1786.271626441992</v>
+        <v>1377.667299261867</v>
       </c>
       <c r="C14">
-        <v>1805.294723160215</v>
+        <v>1390.315919477821</v>
       </c>
       <c r="E14">
-        <v>1617.656700898358</v>
+        <v>1224.639087255672</v>
       </c>
       <c r="F14">
-        <v>1587.787023954569</v>
+        <v>1203.113644725267</v>
       </c>
       <c r="G14">
-        <v>1614.104324717019</v>
+        <v>1223.093363847407</v>
       </c>
       <c r="Q14">
-        <v>0.2252222045714934</v>
+        <v>0.2561221501572131</v>
       </c>
       <c r="R14">
-        <v>0.2370036128853069</v>
+        <v>0.2702173260136886</v>
       </c>
       <c r="S14">
-        <v>0.2257120670841481</v>
+        <v>0.2563049019907969</v>
       </c>
       <c r="Y14">
-        <v>5215245.461557212</v>
+        <v>3994374.377196252</v>
       </c>
       <c r="Z14">
-        <v>5138849.125535968</v>
+        <v>3943577.797935993</v>
       </c>
       <c r="AA14">
-        <v>5198835.59786021</v>
+        <v>3983463.318036254</v>
       </c>
       <c r="AC14">
-        <v>1174589.080233391</v>
+        <v>1023047.754020383</v>
       </c>
       <c r="AD14">
-        <v>1217925.808824525</v>
+        <v>1065623.047485215</v>
       </c>
       <c r="AE14">
-        <v>1173439.929223681</v>
+        <v>1020981.175313216</v>
       </c>
       <c r="BJ14">
-        <v>811800</v>
+        <v>816300</v>
       </c>
       <c r="BK14">
         <v>0</v>
@@ -1828,63 +1828,63 @@
         <v>0</v>
       </c>
       <c r="BN14">
-        <v>2466856.152604734</v>
+        <v>1640233.820174018</v>
       </c>
       <c r="BO14">
-        <v>2390459.816583463</v>
+        <v>1589437.240913777</v>
       </c>
       <c r="BP14">
-        <v>2450446.288907729</v>
+        <v>1629322.761014023</v>
       </c>
     </row>
     <row r="15" spans="1:68">
       <c r="A15">
-        <v>1333.720126139565</v>
+        <v>1551.409168094796</v>
       </c>
       <c r="B15">
-        <v>1314.875995440432</v>
+        <v>1529.873018724375</v>
       </c>
       <c r="C15">
-        <v>1329.448372781747</v>
+        <v>1546.527164257294</v>
       </c>
       <c r="E15">
-        <v>1190.314925850125</v>
+        <v>1387.094609913184</v>
       </c>
       <c r="F15">
-        <v>1164.771881199641</v>
+        <v>1361.825401952416</v>
       </c>
       <c r="G15">
-        <v>1186.541750817084</v>
+        <v>1383.421703427981</v>
       </c>
       <c r="Q15">
-        <v>0.245372838973038</v>
+        <v>0.2410616403472944</v>
       </c>
       <c r="R15">
-        <v>0.2613242425704851</v>
+        <v>0.2509994210545278</v>
       </c>
       <c r="S15">
-        <v>0.246268237285216</v>
+        <v>0.2412896635646931</v>
       </c>
       <c r="Y15">
-        <v>3850840.185413801</v>
+        <v>4483334.299817204</v>
       </c>
       <c r="Z15">
-        <v>3795557.604706443</v>
+        <v>4420154.207580224</v>
       </c>
       <c r="AA15">
-        <v>3838965.537211116</v>
+        <v>4469763.273299849</v>
       </c>
       <c r="AC15">
-        <v>944891.5887264444</v>
+        <v>1080759.920539224</v>
       </c>
       <c r="AD15">
-        <v>991871.2161825559</v>
+        <v>1109456.147074371</v>
       </c>
       <c r="AE15">
-        <v>945415.2758476738</v>
+        <v>1078507.676428342</v>
       </c>
       <c r="BJ15">
-        <v>808500</v>
+        <v>812700</v>
       </c>
       <c r="BK15">
         <v>0</v>
@@ -1893,63 +1893,63 @@
         <v>0</v>
       </c>
       <c r="BN15">
-        <v>1785087.891019766</v>
+        <v>2040100.446879838</v>
       </c>
       <c r="BO15">
-        <v>1729805.310312409</v>
+        <v>1976920.354642846</v>
       </c>
       <c r="BP15">
-        <v>1773213.242817073</v>
+        <v>2026529.420362479</v>
       </c>
     </row>
     <row r="16" spans="1:68">
       <c r="A16">
-        <v>1766.587007580527</v>
+        <v>1964.341060829433</v>
       </c>
       <c r="B16">
-        <v>1747.056137424468</v>
+        <v>1935.635351528287</v>
       </c>
       <c r="C16">
-        <v>1762.159578079937</v>
+        <v>1957.83379806133</v>
       </c>
       <c r="E16">
-        <v>1553.81350229661</v>
+        <v>1749.93045607881</v>
       </c>
       <c r="F16">
-        <v>1528.43739780611</v>
+        <v>1720.653859632113</v>
       </c>
       <c r="G16">
-        <v>1549.266620087341</v>
+        <v>1744.765085684017</v>
       </c>
       <c r="Q16">
-        <v>0.2749123024452237</v>
+        <v>0.2487810055263036</v>
       </c>
       <c r="R16">
-        <v>0.2867684027944526</v>
+        <v>0.2540121071368557</v>
       </c>
       <c r="S16">
-        <v>0.2770696717776119</v>
+        <v>0.2492208139971135</v>
       </c>
       <c r="Y16">
-        <v>5097731.116061848</v>
+        <v>5672504.980313459</v>
       </c>
       <c r="Z16">
-        <v>5040433.864045912</v>
+        <v>5588291.719614934</v>
       </c>
       <c r="AA16">
-        <v>5085423.718289094</v>
+        <v>5654416.048284588</v>
       </c>
       <c r="AC16">
-        <v>1401428.998363222</v>
+        <v>1411211.492855347</v>
       </c>
       <c r="AD16">
-        <v>1445437.168583518</v>
+        <v>1419493.754994832</v>
       </c>
       <c r="AE16">
-        <v>1409016.680476442</v>
+        <v>1409198.170231827</v>
       </c>
       <c r="BJ16">
-        <v>1502050</v>
+        <v>1503700</v>
       </c>
       <c r="BK16">
         <v>0</v>
@@ -1958,60 +1958,60 @@
         <v>0</v>
       </c>
       <c r="BN16">
-        <v>1850142.114453575</v>
+        <v>2719266.539527062</v>
       </c>
       <c r="BO16">
-        <v>1792844.86243764</v>
+        <v>2635053.278828541</v>
       </c>
       <c r="BP16">
-        <v>1837834.716680823</v>
+        <v>2701177.607498187</v>
       </c>
     </row>
     <row r="17" spans="1:68">
       <c r="A17">
-        <v>1120.273290035919</v>
+        <v>1551.348964981292</v>
       </c>
       <c r="B17">
-        <v>1114.944822726766</v>
+        <v>1539.46792300817</v>
       </c>
       <c r="C17">
-        <v>1118.968957564525</v>
+        <v>1548.44065609236</v>
       </c>
       <c r="E17">
-        <v>966.0835850209857</v>
+        <v>1366.329775369851</v>
       </c>
       <c r="F17">
-        <v>952.6209091177947</v>
+        <v>1340.96684737687</v>
       </c>
       <c r="G17">
-        <v>964.0601163818781</v>
+        <v>1362.772376799335</v>
       </c>
       <c r="Q17">
-        <v>0.3252430478267732</v>
+        <v>0.2790311348772406</v>
       </c>
       <c r="R17">
-        <v>0.3469412965007448</v>
+        <v>0.3056739481587281</v>
       </c>
       <c r="S17">
-        <v>0.3311176499120631</v>
+        <v>0.2855255645843397</v>
       </c>
       <c r="Y17">
-        <v>3371251.703242064</v>
+        <v>4695624.805697728</v>
       </c>
       <c r="Z17">
-        <v>3354355.326534132</v>
+        <v>4657950.452227335</v>
       </c>
       <c r="AA17">
-        <v>3367622.376847756</v>
+        <v>4687532.388737444</v>
       </c>
       <c r="AC17">
-        <v>1096476.178953649</v>
+        <v>1310225.51849156</v>
       </c>
       <c r="AD17">
-        <v>1163764.385911931</v>
+        <v>1423814.105060062</v>
       </c>
       <c r="AE17">
-        <v>1115079.207213105</v>
+        <v>1338410.331801637</v>
       </c>
       <c r="BJ17">
         <v>1514150</v>
@@ -2023,63 +2023,63 @@
         <v>0</v>
       </c>
       <c r="BN17">
-        <v>545588.0871969812</v>
+        <v>1216513.978209564</v>
       </c>
       <c r="BO17">
-        <v>528691.7104890528</v>
+        <v>1178839.62473917</v>
       </c>
       <c r="BP17">
-        <v>541958.7608026742</v>
+        <v>1208421.561249276</v>
       </c>
     </row>
     <row r="18" spans="1:68">
       <c r="A18">
-        <v>1631.564180857849</v>
+        <v>1782.245484880455</v>
       </c>
       <c r="B18">
-        <v>1611.072030745218</v>
+        <v>1752.3628641602</v>
       </c>
       <c r="C18">
-        <v>1626.547996043355</v>
+        <v>1774.930647371943</v>
       </c>
       <c r="E18">
-        <v>1446.710359084704</v>
+        <v>1603.316439483265</v>
       </c>
       <c r="F18">
-        <v>1421.304806041482</v>
+        <v>1572.738121042233</v>
       </c>
       <c r="G18">
-        <v>1447.185782891803</v>
+        <v>1604.173962654489</v>
       </c>
       <c r="Q18">
-        <v>0.2629709162075439</v>
+        <v>0.2328738575977961</v>
       </c>
       <c r="R18">
-        <v>0.2768779991580725</v>
+        <v>0.2400854153240801</v>
       </c>
       <c r="S18">
-        <v>0.2601809274197772</v>
+        <v>0.226842540199509</v>
       </c>
       <c r="Y18">
-        <v>4952543.566398605</v>
+        <v>5428355.235043284</v>
       </c>
       <c r="Z18">
-        <v>4887563.701125963</v>
+        <v>5333598.527829872</v>
       </c>
       <c r="AA18">
-        <v>4938585.950265324</v>
+        <v>5408001.580264387</v>
       </c>
       <c r="AC18">
-        <v>1302374.919213618</v>
+        <v>1264122.023995721</v>
       </c>
       <c r="AD18">
-        <v>1353258.85832538</v>
+        <v>1280519.217725937</v>
       </c>
       <c r="AE18">
-        <v>1284925.872682314</v>
+        <v>1226764.815870132</v>
       </c>
       <c r="BJ18">
-        <v>1510300</v>
+        <v>1500950</v>
       </c>
       <c r="BK18">
         <v>0</v>
@@ -2088,63 +2088,63 @@
         <v>0</v>
       </c>
       <c r="BN18">
-        <v>2098215.553147243</v>
+        <v>3059716.97549692</v>
       </c>
       <c r="BO18">
-        <v>2033235.68787459</v>
+        <v>2964960.268283483</v>
       </c>
       <c r="BP18">
-        <v>2084257.937013972</v>
+        <v>3039363.320718021</v>
       </c>
     </row>
     <row r="19" spans="1:68">
       <c r="A19">
-        <v>1801.814381327704</v>
+        <v>1669.263911506546</v>
       </c>
       <c r="B19">
-        <v>1789.183626545586</v>
+        <v>1656.811054679113</v>
       </c>
       <c r="C19">
-        <v>1798.722553482143</v>
+        <v>1666.215630532055</v>
       </c>
       <c r="E19">
-        <v>1579.381425251135</v>
+        <v>1460.412684604268</v>
       </c>
       <c r="F19">
-        <v>1553.000391001544</v>
+        <v>1443.572804595505</v>
       </c>
       <c r="G19">
-        <v>1573.470263613362</v>
+        <v>1457.103472802298</v>
       </c>
       <c r="Q19">
-        <v>0.290025661768856</v>
+        <v>0.2946297584905148</v>
       </c>
       <c r="R19">
-        <v>0.3137619382489499</v>
+        <v>0.3079872536508149</v>
       </c>
       <c r="S19">
-        <v>0.2981170376946843</v>
+        <v>0.2995232159468162</v>
       </c>
       <c r="Y19">
-        <v>5444540.711298936</v>
+        <v>5030680.041868331</v>
       </c>
       <c r="Z19">
-        <v>5404489.045684422</v>
+        <v>4991192.484220219</v>
       </c>
       <c r="AA19">
-        <v>5435937.649845971</v>
+        <v>5022198.150294985</v>
       </c>
       <c r="AC19">
-        <v>1579056.522821952</v>
+        <v>1482188.045778719</v>
       </c>
       <c r="AD19">
-        <v>1695722.958219162</v>
+        <v>1537223.665657574</v>
       </c>
       <c r="AE19">
-        <v>1620545.629265085</v>
+        <v>1504264.941098506</v>
       </c>
       <c r="BJ19">
-        <v>2041500</v>
+        <v>2034750</v>
       </c>
       <c r="BK19">
         <v>0</v>
@@ -2153,63 +2153,63 @@
         <v>0</v>
       </c>
       <c r="BN19">
-        <v>1293277.961861158</v>
+        <v>1275062.779299943</v>
       </c>
       <c r="BO19">
-        <v>1253226.296246656</v>
+        <v>1235575.221651815</v>
       </c>
       <c r="BP19">
-        <v>1284674.900408195</v>
+        <v>1266580.887726592</v>
       </c>
     </row>
     <row r="20" spans="1:68">
       <c r="A20">
-        <v>1588.814300393439</v>
+        <v>2093.018134880233</v>
       </c>
       <c r="B20">
-        <v>1574.581479025624</v>
+        <v>2062.528804737295</v>
       </c>
       <c r="C20">
-        <v>1585.236821174749</v>
+        <v>2085.354514143398</v>
       </c>
       <c r="E20">
-        <v>1372.588265320048</v>
+        <v>1864.288125244738</v>
       </c>
       <c r="F20">
-        <v>1348.438214944418</v>
+        <v>1823.518476211076</v>
       </c>
       <c r="G20">
-        <v>1371.033030692598</v>
+        <v>1860.126434653032</v>
       </c>
       <c r="Q20">
-        <v>0.2880415270795208</v>
+        <v>0.229209880365664</v>
       </c>
       <c r="R20">
-        <v>0.3070180167422008</v>
+        <v>0.2457289356677946</v>
       </c>
       <c r="S20">
-        <v>0.2894471985554802</v>
+        <v>0.2293861853624902</v>
       </c>
       <c r="Y20">
-        <v>4522997.439292508</v>
+        <v>5995337.153911829</v>
       </c>
       <c r="Z20">
-        <v>4480205.820698329</v>
+        <v>5903669.609371567</v>
       </c>
       <c r="AA20">
-        <v>4513805.83842425</v>
+        <v>5975647.048473703</v>
       </c>
       <c r="AC20">
-        <v>1302811.089390576</v>
+        <v>1374190.511799951</v>
       </c>
       <c r="AD20">
-        <v>1375503.905667665</v>
+        <v>1450702.44964518</v>
       </c>
       <c r="AE20">
-        <v>1306508.454755269</v>
+        <v>1370730.881522006</v>
       </c>
       <c r="BJ20">
-        <v>1496550</v>
+        <v>1482800</v>
       </c>
       <c r="BK20">
         <v>0</v>
@@ -2218,63 +2218,63 @@
         <v>0</v>
       </c>
       <c r="BN20">
-        <v>1381751.705731155</v>
+        <v>2959967.166231913</v>
       </c>
       <c r="BO20">
-        <v>1338960.087136976</v>
+        <v>2868299.621691655</v>
       </c>
       <c r="BP20">
-        <v>1372560.1048629</v>
+        <v>2940277.0607938</v>
       </c>
     </row>
     <row r="21" spans="1:68">
       <c r="A21">
-        <v>1581.107289075994</v>
+        <v>1532.4072007033</v>
       </c>
       <c r="B21">
-        <v>1569.956905480872</v>
+        <v>1520.256141657322</v>
       </c>
       <c r="C21">
-        <v>1578.30459349224</v>
+        <v>1529.352981156896</v>
       </c>
       <c r="E21">
-        <v>1375.036840321347</v>
+        <v>1339.076251305187</v>
       </c>
       <c r="F21">
-        <v>1358.909078446187</v>
+        <v>1322.594135915314</v>
       </c>
       <c r="G21">
-        <v>1373.048049995107</v>
+        <v>1336.850087506371</v>
       </c>
       <c r="Q21">
-        <v>0.2789624985399012</v>
+        <v>0.2683877717716758</v>
       </c>
       <c r="R21">
-        <v>0.2909720581420357</v>
+        <v>0.2826103225236524</v>
       </c>
       <c r="S21">
-        <v>0.2817856431338039</v>
+        <v>0.2727335681713113</v>
       </c>
       <c r="Y21">
-        <v>4526920.928459331</v>
+        <v>4382439.674100874</v>
       </c>
       <c r="Z21">
-        <v>4493396.797884607</v>
+        <v>4345906.967705341</v>
       </c>
       <c r="AA21">
-        <v>4519719.975613389</v>
+        <v>4374592.481896961</v>
       </c>
       <c r="AC21">
-        <v>1262841.172895584</v>
+        <v>1176193.219055723</v>
       </c>
       <c r="AD21">
-        <v>1307452.914329317</v>
+        <v>1228198.169800994</v>
       </c>
       <c r="AE21">
-        <v>1273592.200112919</v>
+        <v>1193098.216883151</v>
       </c>
       <c r="BJ21">
-        <v>815400</v>
+        <v>816000</v>
       </c>
       <c r="BK21">
         <v>0</v>
@@ -2283,63 +2283,63 @@
         <v>0</v>
       </c>
       <c r="BN21">
-        <v>1082502.277936522</v>
+        <v>1179649.918263798</v>
       </c>
       <c r="BO21">
-        <v>1048978.147361772</v>
+        <v>1143117.211868262</v>
       </c>
       <c r="BP21">
-        <v>1075301.325090575</v>
+        <v>1171802.726059887</v>
       </c>
     </row>
     <row r="22" spans="1:68">
       <c r="A22">
-        <v>2299.825754528319</v>
+        <v>1928.589711135101</v>
       </c>
       <c r="B22">
-        <v>2265.771518091727</v>
+        <v>1901.714427598115</v>
       </c>
       <c r="C22">
-        <v>2291.266079674557</v>
+        <v>1921.834496138351</v>
       </c>
       <c r="E22">
-        <v>2056.809624355546</v>
+        <v>1708.107543665012</v>
       </c>
       <c r="F22">
-        <v>2021.99936634181</v>
+        <v>1672.04954809686</v>
       </c>
       <c r="G22">
-        <v>2057.596015395027</v>
+        <v>1704.634487017758</v>
       </c>
       <c r="Q22">
-        <v>0.2214991695647914</v>
+        <v>0.2407096218038137</v>
       </c>
       <c r="R22">
-        <v>0.2297032190752614</v>
+        <v>0.2572941093655278</v>
       </c>
       <c r="S22">
-        <v>0.2180815631877855</v>
+        <v>0.2417029236647031</v>
       </c>
       <c r="Y22">
-        <v>6599972.481051713</v>
+        <v>5516910.173056435</v>
       </c>
       <c r="Z22">
-        <v>6497586.885149822</v>
+        <v>5436108.422440434</v>
       </c>
       <c r="AA22">
-        <v>6577980.147900822</v>
+        <v>5499554.030299546</v>
       </c>
       <c r="AC22">
-        <v>1461888.423703431</v>
+        <v>1327973.361282027</v>
       </c>
       <c r="AD22">
-        <v>1492516.623740115</v>
+        <v>1398678.674966256</v>
       </c>
       <c r="AE22">
-        <v>1434536.193272432</v>
+        <v>1329258.287975401</v>
       </c>
       <c r="BJ22">
-        <v>1462450</v>
+        <v>1482250</v>
       </c>
       <c r="BK22">
         <v>0</v>
@@ -2348,63 +2348,63 @@
         <v>0</v>
       </c>
       <c r="BN22">
-        <v>3306055.634899013</v>
+        <v>2609108.054512824</v>
       </c>
       <c r="BO22">
-        <v>3203670.03899709</v>
+        <v>2528306.303896835</v>
       </c>
       <c r="BP22">
-        <v>3284063.301748122</v>
+        <v>2591751.911755925</v>
       </c>
     </row>
     <row r="23" spans="1:68">
       <c r="A23">
-        <v>906.7634423679408</v>
+        <v>1341.727492948646</v>
       </c>
       <c r="B23">
-        <v>898.5317254104489</v>
+        <v>1329.118956518768</v>
       </c>
       <c r="C23">
-        <v>904.8974043365104</v>
+        <v>1338.869278967252</v>
       </c>
       <c r="E23">
-        <v>782.4860050004083</v>
+        <v>1178.345267007834</v>
       </c>
       <c r="F23">
-        <v>770.1626844703559</v>
+        <v>1160.534356802907</v>
       </c>
       <c r="G23">
-        <v>779.4919532817318</v>
+        <v>1176.937944554628</v>
       </c>
       <c r="Q23">
-        <v>0.3131105390101954</v>
+        <v>0.2773652254082036</v>
       </c>
       <c r="R23">
-        <v>0.3274177023658372</v>
+        <v>0.2900036869763798</v>
       </c>
       <c r="S23">
-        <v>0.3176419984373204</v>
+        <v>0.2767406045437392</v>
       </c>
       <c r="Y23">
-        <v>2615208.054048464</v>
+        <v>3877281.967789683</v>
       </c>
       <c r="Z23">
-        <v>2591058.860629652</v>
+        <v>3840292.602564206</v>
       </c>
       <c r="AA23">
-        <v>2610020.829201907</v>
+        <v>3869336.685683222</v>
       </c>
       <c r="AC23">
-        <v>818849.2034269186</v>
+        <v>1075423.186967149</v>
       </c>
       <c r="AD23">
-        <v>848358.5388420045</v>
+        <v>1113699.013811737</v>
       </c>
       <c r="AE23">
-        <v>829052.2321507258</v>
+        <v>1070802.573579243</v>
       </c>
       <c r="BJ23">
-        <v>816600</v>
+        <v>820200</v>
       </c>
       <c r="BK23">
         <v>0</v>
@@ -2413,63 +2413,63 @@
         <v>0</v>
       </c>
       <c r="BN23">
-        <v>779783.2915582067</v>
+        <v>1194395.542242067</v>
       </c>
       <c r="BO23">
-        <v>755634.0981393936</v>
+        <v>1157406.17701659</v>
       </c>
       <c r="BP23">
-        <v>774596.066711651</v>
+        <v>1186450.260135604</v>
       </c>
     </row>
     <row r="24" spans="1:68">
       <c r="A24">
-        <v>1513.221943515414</v>
+        <v>1355.088024977636</v>
       </c>
       <c r="B24">
-        <v>1499.986185048173</v>
+        <v>1342.108649240998</v>
       </c>
       <c r="C24">
-        <v>1510.221545323606</v>
+        <v>1352.145745879141</v>
       </c>
       <c r="E24">
-        <v>1319.310741255193</v>
+        <v>1176.413554709998</v>
       </c>
       <c r="F24">
-        <v>1297.112428358174</v>
+        <v>1157.388650016677</v>
       </c>
       <c r="G24">
-        <v>1314.809697459731</v>
+        <v>1174.048426165841</v>
       </c>
       <c r="Q24">
-        <v>0.2926471425085317</v>
+        <v>0.3014616811955259</v>
       </c>
       <c r="R24">
-        <v>0.3109388583564673</v>
+        <v>0.3165241322318446</v>
       </c>
       <c r="S24">
-        <v>0.296924753553704</v>
+        <v>0.3028499316326509</v>
       </c>
       <c r="Y24">
-        <v>4362254.080404473</v>
+        <v>3901687.377557293</v>
       </c>
       <c r="Z24">
-        <v>4323424.648717163</v>
+        <v>3863610.089825185</v>
       </c>
       <c r="AA24">
-        <v>4353913.553690684</v>
+        <v>3893508.410682994</v>
       </c>
       <c r="AC24">
-        <v>1276601.191526552</v>
+        <v>1176209.236337784</v>
       </c>
       <c r="AD24">
-        <v>1344320.724462325</v>
+        <v>1222925.830964116</v>
       </c>
       <c r="AE24">
-        <v>1292784.708923738</v>
+        <v>1179148.755986496</v>
       </c>
       <c r="BJ24">
-        <v>1497650</v>
+        <v>1494900</v>
       </c>
       <c r="BK24">
         <v>0</v>
@@ -2478,63 +2478,63 @@
         <v>0</v>
       </c>
       <c r="BN24">
-        <v>1253811.7329782</v>
+        <v>1229524.82289626</v>
       </c>
       <c r="BO24">
-        <v>1214982.301290862</v>
+        <v>1191447.535164156</v>
       </c>
       <c r="BP24">
-        <v>1245471.206264402</v>
+        <v>1221345.856021958</v>
       </c>
     </row>
     <row r="25" spans="1:68">
       <c r="A25">
-        <v>1759.260775508988</v>
+        <v>1496.961575735192</v>
       </c>
       <c r="B25">
-        <v>1744.520659264279</v>
+        <v>1487.202602221448</v>
       </c>
       <c r="C25">
-        <v>1755.652606192253</v>
+        <v>1494.572718808242</v>
       </c>
       <c r="E25">
-        <v>1551.763948014106</v>
+        <v>1303.625778538232</v>
       </c>
       <c r="F25">
-        <v>1526.581456292715</v>
+        <v>1281.582765072927</v>
       </c>
       <c r="G25">
-        <v>1546.438285327782</v>
+        <v>1299.09636199973</v>
       </c>
       <c r="Q25">
-        <v>0.27507479259038</v>
+        <v>0.3029958318315739</v>
       </c>
       <c r="R25">
-        <v>0.2958854879381086</v>
+        <v>0.3296170306258422</v>
       </c>
       <c r="S25">
-        <v>0.2824832448954146</v>
+        <v>0.311652367280463</v>
       </c>
       <c r="Y25">
-        <v>5323329.877163579</v>
+        <v>4511809.273316761</v>
       </c>
       <c r="Z25">
-        <v>5276589.502804589</v>
+        <v>4480863.922017016</v>
       </c>
       <c r="AA25">
-        <v>5313290.087137985</v>
+        <v>4505162.239920506</v>
       </c>
       <c r="AC25">
-        <v>1464313.861850944</v>
+        <v>1367059.403834021</v>
       </c>
       <c r="AD25">
-        <v>1561266.259686438</v>
+        <v>1476969.060613714</v>
       </c>
       <c r="AE25">
-        <v>1500915.424885378</v>
+        <v>1404044.477053779</v>
       </c>
       <c r="BJ25">
-        <v>2049000</v>
+        <v>2058000</v>
       </c>
       <c r="BK25">
         <v>0</v>
@@ -2543,63 +2543,63 @@
         <v>0</v>
       </c>
       <c r="BN25">
-        <v>1509257.98366112</v>
+        <v>999232.8719411464</v>
       </c>
       <c r="BO25">
-        <v>1462517.609302118</v>
+        <v>968287.5206414029</v>
       </c>
       <c r="BP25">
-        <v>1499218.193635525</v>
+        <v>992585.8385448931</v>
       </c>
     </row>
     <row r="26" spans="1:68">
       <c r="A26">
-        <v>1823.927207002859</v>
+        <v>1665.79182770264</v>
       </c>
       <c r="B26">
-        <v>1796.785061917747</v>
+        <v>1646.4941352857</v>
       </c>
       <c r="C26">
-        <v>1817.283198674779</v>
+        <v>1661.068029022445</v>
       </c>
       <c r="E26">
-        <v>1636.891945931784</v>
+        <v>1469.481626840081</v>
       </c>
       <c r="F26">
-        <v>1603.198377384263</v>
+        <v>1445.782809604471</v>
       </c>
       <c r="G26">
-        <v>1633.651405325673</v>
+        <v>1469.932783128337</v>
       </c>
       <c r="Q26">
-        <v>0.2384207925798619</v>
+        <v>0.2740564878398347</v>
       </c>
       <c r="R26">
-        <v>0.2528387055834797</v>
+        <v>0.2859868349944159</v>
       </c>
       <c r="S26">
-        <v>0.2386041912181102</v>
+        <v>0.2704778479140115</v>
       </c>
       <c r="Y26">
-        <v>5568751.438391812</v>
+        <v>5068032.625799076</v>
       </c>
       <c r="Z26">
-        <v>5482684.680089395</v>
+        <v>5006840.342586558</v>
       </c>
       <c r="AA26">
-        <v>5550264.376758477</v>
+        <v>5054888.578857522</v>
       </c>
       <c r="AC26">
-        <v>1327706.131621622</v>
+        <v>1388927.22168419</v>
       </c>
       <c r="AD26">
-        <v>1386234.897636177</v>
+        <v>1431890.422898687</v>
       </c>
       <c r="AE26">
-        <v>1324316.342663145</v>
+        <v>1367235.384254499</v>
       </c>
       <c r="BJ26">
-        <v>1503700</v>
+        <v>1479500</v>
       </c>
       <c r="BK26">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="BN26">
-        <v>2779116.425086224</v>
+        <v>1975913.613091844</v>
       </c>
       <c r="BO26">
-        <v>2693049.666783805</v>
+        <v>1914721.329879338</v>
       </c>
       <c r="BP26">
-        <v>2760629.363452895</v>
+        <v>1962769.56615029</v>
       </c>
     </row>
   </sheetData>

--- a/example_2/main_results.xlsx
+++ b/example_2/main_results.xlsx
@@ -705,28 +705,28 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3">
-        <v>827.1903694834525</v>
+        <v>797.8792488031239</v>
       </c>
       <c r="B3">
-        <v>819.3967448023398</v>
+        <v>790.0856241220147</v>
       </c>
       <c r="C3">
-        <v>825.2826017987393</v>
+        <v>795.9714811184119</v>
       </c>
       <c r="E3">
-        <v>723.7989169953794</v>
+        <v>698.0691669807461</v>
       </c>
       <c r="F3">
-        <v>712.5532514413514</v>
+        <v>687.7687423627171</v>
       </c>
       <c r="G3">
-        <v>722.4570944662307</v>
+        <v>696.8386870556468</v>
       </c>
       <c r="I3">
         <v>1821.4922821219</v>
       </c>
       <c r="K3">
-        <v>6292.869390899647</v>
+        <v>6451.268137460163</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -735,40 +735,40 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.6136969605450309</v>
+        <v>0.6354372045355206</v>
       </c>
       <c r="S3">
-        <v>0.2913396588624677</v>
+        <v>0.2913549158007916</v>
       </c>
       <c r="T3">
-        <v>0.3059224435407682</v>
+        <v>0.3048172208031309</v>
       </c>
       <c r="U3">
-        <v>0.2927015984688633</v>
+        <v>0.2939555437515638</v>
       </c>
       <c r="W3">
-        <v>17591200.12318645</v>
+        <v>16601207.95718336</v>
       </c>
       <c r="Y3">
         <v>45537307.0530475</v>
       </c>
       <c r="AA3">
-        <v>2527018.310521775</v>
+        <v>2427697.058505212</v>
       </c>
       <c r="AB3">
-        <v>2502305.009136563</v>
+        <v>2402983.757119999</v>
       </c>
       <c r="AC3">
-        <v>2521709.9157956</v>
+        <v>2422388.663779037</v>
       </c>
       <c r="AE3">
-        <v>736220.6525266233</v>
+        <v>707321.4720706154</v>
       </c>
       <c r="AF3">
-        <v>765511.2628793615</v>
+        <v>732470.8304803839</v>
       </c>
       <c r="AG3">
-        <v>738108.5232281548</v>
+        <v>712074.5768387908</v>
       </c>
       <c r="AI3">
         <v>7281.394624793094</v>
@@ -777,79 +777,79 @@
         <v>17</v>
       </c>
       <c r="AM3">
-        <v>74380.92010120681</v>
+        <v>174619.5860319744</v>
       </c>
       <c r="AN3">
-        <v>237761.0649534275</v>
+        <v>362112.4991256031</v>
       </c>
       <c r="AO3">
-        <v>323307.9059496199</v>
+        <v>278779.9347240999</v>
       </c>
       <c r="AP3">
-        <v>487978.244942761</v>
+        <v>753390.1964354373</v>
       </c>
       <c r="AQ3">
-        <v>578640.4018753023</v>
+        <v>633703.1042454761</v>
       </c>
       <c r="AR3">
-        <v>660933.634254034</v>
+        <v>675994.3363265407</v>
       </c>
       <c r="AS3">
-        <v>185927.6935393851</v>
+        <v>78935.94173167797</v>
       </c>
       <c r="AT3">
-        <v>15970.15589070659</v>
+        <v>164608.5133764124</v>
       </c>
       <c r="AU3">
-        <v>473511.8863656096</v>
+        <v>720932.3378892926</v>
       </c>
       <c r="AV3">
-        <v>225561.0521289394</v>
+        <v>398371.7885075719</v>
       </c>
       <c r="AW3">
-        <v>267076.0174383271</v>
+        <v>276333.4521562256</v>
       </c>
       <c r="AX3">
-        <v>429772.8106341548</v>
+        <v>432079.1671276371</v>
       </c>
       <c r="AY3">
-        <v>593663.8824091185</v>
+        <v>494842.4171431407</v>
       </c>
       <c r="AZ3">
-        <v>97812.51252061967</v>
+        <v>110767.7409428603</v>
       </c>
       <c r="BA3">
-        <v>69305.96080717377</v>
+        <v>128367.3633274213</v>
       </c>
       <c r="BB3">
-        <v>322662.6955982487</v>
+        <v>194614.4841058206</v>
       </c>
       <c r="BC3">
-        <v>40361.62264501966</v>
+        <v>100273.4238902601</v>
       </c>
       <c r="BD3">
-        <v>394207.4991628115</v>
+        <v>271571.9396728143</v>
       </c>
       <c r="BE3">
-        <v>785016.5715703177</v>
+        <v>670829.2365212645</v>
       </c>
       <c r="BF3">
-        <v>608959.0977216068</v>
+        <v>616034.6636734593</v>
       </c>
       <c r="BG3">
-        <v>559175.1280340333</v>
+        <v>590662.9066937875</v>
       </c>
       <c r="BH3">
-        <v>28901.7345306163</v>
+        <v>21246.35159437906</v>
       </c>
       <c r="BI3">
-        <v>300944.1625882149</v>
+        <v>194614.9972465799</v>
       </c>
       <c r="BJ3">
-        <v>251247.0703114341</v>
+        <v>214832.9679759882</v>
       </c>
       <c r="BL3">
-        <v>581459.25</v>
+        <v>533916.25</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -869,67 +869,67 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4">
-        <v>1437.335671155636</v>
+        <v>1426.280474657687</v>
       </c>
       <c r="B4">
-        <v>1437.098623257291</v>
+        <v>1426.043426759347</v>
       </c>
       <c r="C4">
-        <v>1420.594021774341</v>
+        <v>1409.53882527638</v>
       </c>
       <c r="E4">
-        <v>1241.134986318658</v>
+        <v>1239.373991646767</v>
       </c>
       <c r="F4">
-        <v>1227.905993322765</v>
+        <v>1227.636307573435</v>
       </c>
       <c r="G4">
-        <v>1229.33975766168</v>
+        <v>1226.823854190825</v>
       </c>
       <c r="I4">
         <v>2071.45402065881</v>
       </c>
       <c r="K4">
-        <v>6795.735430599264</v>
+        <v>6961.149276609145</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.5701648893512432</v>
+        <v>0.5901283841187055</v>
       </c>
       <c r="S4">
-        <v>0.2895955667639807</v>
+        <v>0.276306137469254</v>
       </c>
       <c r="T4">
-        <v>0.3136648160998063</v>
+        <v>0.2964989002270083</v>
       </c>
       <c r="U4">
-        <v>0.29046753666402</v>
+        <v>0.2778987084290993</v>
       </c>
       <c r="W4">
-        <v>22259591.7043423</v>
+        <v>21225755.16678078</v>
       </c>
       <c r="Y4">
         <v>51786350.51647026</v>
       </c>
       <c r="AA4">
-        <v>4057451.074616128</v>
+        <v>4061898.292287056</v>
       </c>
       <c r="AB4">
-        <v>4049984.592326671</v>
+        <v>4054431.809997601</v>
       </c>
       <c r="AC4">
-        <v>4005845.323954515</v>
+        <v>4010292.541625445</v>
       </c>
       <c r="AE4">
-        <v>1175019.84357058</v>
+        <v>1122327.427934796</v>
       </c>
       <c r="AF4">
-        <v>1270337.672359194</v>
+        <v>1202134.572709687</v>
       </c>
       <c r="AG4">
-        <v>1163568.023506151</v>
+        <v>1114455.117740561</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -938,79 +938,79 @@
         <v>18</v>
       </c>
       <c r="AM4">
-        <v>648506.4</v>
+        <v>96399.60000000002</v>
       </c>
       <c r="AN4">
+        <v>630979.2</v>
+      </c>
+      <c r="AO4">
         <v>262907.9999999999</v>
       </c>
-      <c r="AO4">
-        <v>140217.6</v>
-      </c>
       <c r="AP4">
-        <v>587161.2000000001</v>
+        <v>867596.3999999998</v>
       </c>
       <c r="AQ4">
-        <v>578397.6000000001</v>
+        <v>560870.4</v>
       </c>
       <c r="AR4">
-        <v>368071.2</v>
+        <v>420652.8000000001</v>
       </c>
       <c r="AS4">
-        <v>184035.6</v>
+        <v>613452.0000000001</v>
       </c>
       <c r="AT4">
-        <v>219090</v>
+        <v>666033.6</v>
       </c>
       <c r="AU4">
-        <v>1034104.8</v>
+        <v>429416.4000000001</v>
       </c>
       <c r="AV4">
-        <v>455707.1999999999</v>
+        <v>122690.4</v>
       </c>
       <c r="AW4">
-        <v>148981.2</v>
+        <v>210326.4000000001</v>
       </c>
       <c r="AX4">
-        <v>350544</v>
+        <v>289198.8</v>
       </c>
       <c r="AY4">
-        <v>718615.1999999998</v>
+        <v>525815.9999999999</v>
       </c>
       <c r="AZ4">
+        <v>227853.5999999999</v>
+      </c>
+      <c r="BA4">
+        <v>315489.6</v>
+      </c>
+      <c r="BB4">
         <v>175272</v>
       </c>
-      <c r="BA4">
-        <v>630979.2</v>
-      </c>
-      <c r="BB4">
-        <v>411889.2</v>
-      </c>
       <c r="BC4">
-        <v>446943.5999999999</v>
+        <v>885123.6000000002</v>
       </c>
       <c r="BD4">
-        <v>885123.6000000002</v>
+        <v>262907.9999999999</v>
       </c>
       <c r="BE4">
-        <v>893887.1999999997</v>
+        <v>604688.4</v>
       </c>
       <c r="BF4">
-        <v>359307.5999999999</v>
+        <v>806251.2</v>
       </c>
       <c r="BG4">
-        <v>701088</v>
+        <v>622215.6000000001</v>
       </c>
       <c r="BH4">
-        <v>341780.4</v>
+        <v>420652.8000000001</v>
       </c>
       <c r="BI4">
-        <v>368071.2</v>
+        <v>499525.2</v>
       </c>
       <c r="BJ4">
-        <v>674797.1999999997</v>
+        <v>779960.3999999999</v>
       </c>
       <c r="BL4">
-        <v>1820258</v>
+        <v>1218490</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -1030,67 +1030,67 @@
     </row>
     <row r="5" spans="1:70">
       <c r="A5">
-        <v>1862.468577954742</v>
+        <v>1744.133415424018</v>
       </c>
       <c r="B5">
-        <v>1823.379027851032</v>
+        <v>1705.043865320292</v>
       </c>
       <c r="C5">
-        <v>1862.277962118974</v>
+        <v>1743.942799588239</v>
       </c>
       <c r="E5">
-        <v>1631.575591177699</v>
+        <v>1525.271805202385</v>
       </c>
       <c r="F5">
-        <v>1587.821464926188</v>
+        <v>1482.639979704109</v>
       </c>
       <c r="G5">
-        <v>1632.482470497881</v>
+        <v>1527.892283992929</v>
       </c>
       <c r="I5">
         <v>1899.221798945178</v>
       </c>
       <c r="K5">
-        <v>6415.512715066613</v>
+        <v>6545.969312203911</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.5944922966119306</v>
+        <v>0.611664671793404</v>
       </c>
       <c r="S5">
-        <v>0.2614265162964907</v>
+        <v>0.2654496404411912</v>
       </c>
       <c r="T5">
-        <v>0.2767183194678232</v>
+        <v>0.2795386430102833</v>
       </c>
       <c r="U5">
-        <v>0.2640037209695745</v>
+        <v>0.266589313456171</v>
       </c>
       <c r="W5">
-        <v>19253726.74787042</v>
+        <v>18438373.01576243</v>
       </c>
       <c r="Y5">
         <v>47480544.97362944</v>
       </c>
       <c r="AA5">
-        <v>5309326.239591836</v>
+        <v>4984595.737965411</v>
       </c>
       <c r="AB5">
-        <v>5193931.537257714</v>
+        <v>4869201.035631291</v>
       </c>
       <c r="AC5">
-        <v>5308837.48103856</v>
+        <v>4984106.979412137</v>
       </c>
       <c r="AE5">
-        <v>1387998.66269804</v>
+        <v>1323159.146387612</v>
       </c>
       <c r="AF5">
-        <v>1437256.006420882</v>
+        <v>1361129.850044637</v>
       </c>
       <c r="AG5">
-        <v>1401552.849016923</v>
+        <v>1328709.657833592</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1099,79 +1099,79 @@
         <v>19</v>
       </c>
       <c r="AM5">
-        <v>326929.2663009302</v>
+        <v>718990.148353599</v>
       </c>
       <c r="AN5">
-        <v>568753.4918091048</v>
+        <v>673647.0753078589</v>
       </c>
       <c r="AO5">
-        <v>865314.4672211196</v>
+        <v>620385.0368202159</v>
       </c>
       <c r="AP5">
-        <v>593975.1276309167</v>
+        <v>718908.799230236</v>
       </c>
       <c r="AQ5">
-        <v>680241.4300577391</v>
+        <v>385910.8189473996</v>
       </c>
       <c r="AR5">
-        <v>897646.7865454804</v>
+        <v>516114.1666292562</v>
       </c>
       <c r="AS5">
-        <v>551346.9103449873</v>
+        <v>881112.4106965206</v>
       </c>
       <c r="AT5">
-        <v>386237.2263406357</v>
+        <v>589440.0148129098</v>
       </c>
       <c r="AU5">
-        <v>385482.4933838289</v>
+        <v>498300.5813794593</v>
       </c>
       <c r="AV5">
-        <v>948936.7258438157</v>
+        <v>400392.1293808781</v>
       </c>
       <c r="AW5">
-        <v>374779.4868542977</v>
+        <v>404237.9890802303</v>
       </c>
       <c r="AX5">
-        <v>368311.6729580271</v>
+        <v>573890.6169815591</v>
       </c>
       <c r="AY5">
-        <v>879945.9814871186</v>
+        <v>924019.8976957946</v>
       </c>
       <c r="AZ5">
-        <v>512093.4483542648</v>
+        <v>741956.2445689125</v>
       </c>
       <c r="BA5">
-        <v>838840.0382904115</v>
+        <v>840606.0092898227</v>
       </c>
       <c r="BB5">
-        <v>764909.8463552938</v>
+        <v>934110.3985968237</v>
       </c>
       <c r="BC5">
-        <v>816550.3057270308</v>
+        <v>565849.0191581767</v>
       </c>
       <c r="BD5">
-        <v>942357.2783401397</v>
+        <v>923484.5279329927</v>
       </c>
       <c r="BE5">
-        <v>432254.9679655557</v>
+        <v>873137.7255580573</v>
       </c>
       <c r="BF5">
-        <v>383309.6979701687</v>
+        <v>659861.0555920363</v>
       </c>
       <c r="BG5">
-        <v>446980.3163813807</v>
+        <v>568078.3062981189</v>
       </c>
       <c r="BH5">
-        <v>912266.1349329763</v>
+        <v>899230.3506032523</v>
       </c>
       <c r="BI5">
-        <v>561882.3349325634</v>
+        <v>900320.07599146</v>
       </c>
       <c r="BJ5">
-        <v>395417.9156808014</v>
+        <v>679614.5980312757</v>
       </c>
       <c r="BL5">
-        <v>1625596.5</v>
+        <v>1458875</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -1191,127 +1191,127 @@
     </row>
     <row r="6" spans="1:70">
       <c r="A6">
-        <v>2465.693147352885</v>
+        <v>2314.983331192309</v>
       </c>
       <c r="B6">
-        <v>2447.468682007061</v>
+        <v>2296.758865846492</v>
       </c>
       <c r="C6">
-        <v>2465.303153790197</v>
+        <v>2314.593337629623</v>
       </c>
       <c r="E6">
-        <v>2170.515701961297</v>
+        <v>2048.090083737749</v>
       </c>
       <c r="F6">
-        <v>2127.992435929571</v>
+        <v>2009.763417448216</v>
       </c>
       <c r="G6">
-        <v>2167.614534085825</v>
+        <v>2047.611646994995</v>
       </c>
       <c r="S6">
-        <v>0.2534589165129452</v>
+        <v>0.2423332836769975</v>
       </c>
       <c r="T6">
-        <v>0.281655144331689</v>
+        <v>0.2676725586025671</v>
       </c>
       <c r="U6">
-        <v>0.2604882116666556</v>
+        <v>0.2481252019981637</v>
       </c>
       <c r="AA6">
-        <v>6999047.990378793</v>
+        <v>6611389.563470789</v>
       </c>
       <c r="AB6">
-        <v>6940614.521146741</v>
+        <v>6552956.094238737</v>
       </c>
       <c r="AC6">
-        <v>7004224.658714393</v>
+        <v>6616566.231806388</v>
       </c>
       <c r="AE6">
-        <v>1773971.120263515</v>
+        <v>1602159.742583707</v>
       </c>
       <c r="AF6">
-        <v>1954859.784704202</v>
+        <v>1754046.524155167</v>
       </c>
       <c r="AG6">
-        <v>1824517.955460003</v>
+        <v>1641736.832801189</v>
       </c>
       <c r="AK6" t="s">
         <v>20</v>
       </c>
       <c r="AM6">
-        <v>97744</v>
+        <v>105773</v>
       </c>
       <c r="AN6">
-        <v>164079</v>
+        <v>172978</v>
       </c>
       <c r="AO6">
-        <v>440711</v>
+        <v>449469</v>
       </c>
       <c r="AP6">
-        <v>277537</v>
+        <v>272028</v>
       </c>
       <c r="AQ6">
-        <v>1552577.25</v>
+        <v>1476962</v>
       </c>
       <c r="AR6">
-        <v>486431</v>
+        <v>485055</v>
       </c>
       <c r="AS6">
-        <v>21204</v>
+        <v>22313</v>
       </c>
       <c r="AT6">
-        <v>27430</v>
+        <v>32703</v>
       </c>
       <c r="AU6">
-        <v>264628</v>
+        <v>271278</v>
       </c>
       <c r="AV6">
-        <v>23712</v>
+        <v>30833</v>
       </c>
       <c r="AW6">
-        <v>155106</v>
+        <v>146953</v>
       </c>
       <c r="AX6">
-        <v>490655</v>
+        <v>480697</v>
       </c>
       <c r="AY6">
-        <v>1282680.25</v>
+        <v>1338447</v>
       </c>
       <c r="AZ6">
-        <v>26293</v>
+        <v>24186</v>
       </c>
       <c r="BA6">
-        <v>26554</v>
+        <v>25227</v>
       </c>
       <c r="BB6">
-        <v>24947</v>
+        <v>25140</v>
       </c>
       <c r="BC6">
-        <v>95048</v>
+        <v>102707</v>
       </c>
       <c r="BD6">
-        <v>454563</v>
+        <v>442468.1111111111</v>
       </c>
       <c r="BE6">
-        <v>156636</v>
+        <v>149330</v>
       </c>
       <c r="BF6">
-        <v>1240868</v>
+        <v>1364530.75</v>
       </c>
       <c r="BG6">
-        <v>1044175</v>
+        <v>941337</v>
       </c>
       <c r="BH6">
-        <v>28604</v>
+        <v>24512</v>
       </c>
       <c r="BI6">
-        <v>26898</v>
+        <v>23620</v>
       </c>
       <c r="BJ6">
-        <v>103700</v>
+        <v>111999</v>
       </c>
       <c r="BL6">
-        <v>3005264</v>
+        <v>1952333.75</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -1331,52 +1331,52 @@
     </row>
     <row r="7" spans="1:70">
       <c r="A7">
-        <v>3184.798246786468</v>
+        <v>2989.430767282721</v>
       </c>
       <c r="B7">
-        <v>3128.253501536954</v>
+        <v>2932.88602203319</v>
       </c>
       <c r="C7">
-        <v>3141.829962448193</v>
+        <v>2946.462482944435</v>
       </c>
       <c r="E7">
-        <v>2863.280695245525</v>
+        <v>2703.624193725457</v>
       </c>
       <c r="F7">
-        <v>2798.304977761311</v>
+        <v>2629.60056160305</v>
       </c>
       <c r="G7">
-        <v>2829.122632138282</v>
+        <v>2660.734095626111</v>
       </c>
       <c r="S7">
-        <v>0.2304829589459489</v>
+        <v>0.2182552247333447</v>
       </c>
       <c r="T7">
-        <v>0.2420040733342343</v>
+        <v>0.2370735476378339</v>
       </c>
       <c r="U7">
-        <v>0.2291465810228901</v>
+        <v>0.2231236360003243</v>
       </c>
       <c r="AA7">
-        <v>9164619.763404721</v>
+        <v>8608947.654664556</v>
       </c>
       <c r="AB7">
-        <v>8998968.363488963</v>
+        <v>8443296.254748799</v>
       </c>
       <c r="AC7">
-        <v>9036126.927889857</v>
+        <v>8480454.81914969</v>
       </c>
       <c r="AE7">
-        <v>2112288.680684043</v>
+        <v>1878947.805086413</v>
       </c>
       <c r="AF7">
-        <v>2177786.999770238</v>
+        <v>2001682.196870534</v>
       </c>
       <c r="AG7">
-        <v>2070597.591214832</v>
+        <v>1892189.914185151</v>
       </c>
       <c r="BL7">
-        <v>2489416.5</v>
+        <v>2266154.75</v>
       </c>
       <c r="BM7">
         <v>0</v>
@@ -1396,52 +1396,52 @@
     </row>
     <row r="8" spans="1:70">
       <c r="A8">
-        <v>1972.898127815464</v>
+        <v>1579.105583334</v>
       </c>
       <c r="B8">
-        <v>1950.375060795949</v>
+        <v>1556.582516314475</v>
       </c>
       <c r="C8">
-        <v>1967.934248264648</v>
+        <v>1574.141703783184</v>
       </c>
       <c r="E8">
-        <v>1751.353900298854</v>
+        <v>1408.693317942702</v>
       </c>
       <c r="F8">
-        <v>1716.226377380317</v>
+        <v>1383.744543541935</v>
       </c>
       <c r="G8">
-        <v>1742.98316456865</v>
+        <v>1405.410702848174</v>
       </c>
       <c r="S8">
-        <v>0.2567629605000033</v>
+        <v>0.2464886539734649</v>
       </c>
       <c r="T8">
-        <v>0.2761312532629898</v>
+        <v>0.2546573691535206</v>
       </c>
       <c r="U8">
-        <v>0.262942350402487</v>
+        <v>0.2460458770205998</v>
       </c>
       <c r="AA8">
-        <v>5676844.880866749</v>
+        <v>4549702.313023032</v>
       </c>
       <c r="AB8">
-        <v>5611327.392847293</v>
+        <v>4484184.825003576</v>
       </c>
       <c r="AC8">
-        <v>5662625.583248552</v>
+        <v>4535483.015404834</v>
       </c>
       <c r="AE8">
-        <v>1457603.497910635</v>
+        <v>1121449.999117007</v>
       </c>
       <c r="AF8">
-        <v>1549462.865455868</v>
+        <v>1141930.710333551</v>
       </c>
       <c r="AG8">
-        <v>1488944.080308628</v>
+        <v>1115936.896237317</v>
       </c>
       <c r="BL8">
-        <v>1578518</v>
+        <v>766641.75</v>
       </c>
       <c r="BM8">
         <v>0</v>
@@ -1461,52 +1461,52 @@
     </row>
     <row r="9" spans="1:70">
       <c r="A9">
-        <v>709.0117917258233</v>
+        <v>940.6554037050864</v>
       </c>
       <c r="B9">
-        <v>702.0295658478482</v>
+        <v>933.6731778271067</v>
       </c>
       <c r="C9">
-        <v>703.2638719299118</v>
+        <v>934.9074839091693</v>
       </c>
       <c r="E9">
-        <v>621.0169360473878</v>
+        <v>824.5608447614118</v>
       </c>
       <c r="F9">
-        <v>611.0864009185656</v>
+        <v>813.0688174258887</v>
       </c>
       <c r="G9">
-        <v>616.6233863508747</v>
+        <v>820.1855795986085</v>
       </c>
       <c r="S9">
-        <v>0.2897145498649591</v>
+        <v>0.2864624536914779</v>
       </c>
       <c r="T9">
-        <v>0.3045933862358934</v>
+        <v>0.3026462287345483</v>
       </c>
       <c r="U9">
-        <v>0.2904852937493723</v>
+        <v>0.288204362259949</v>
       </c>
       <c r="AA9">
-        <v>2158283.557620395</v>
+        <v>2876756.456164221</v>
       </c>
       <c r="AB9">
-        <v>2134951.893218707</v>
+        <v>2853424.791762533</v>
       </c>
       <c r="AC9">
-        <v>2140547.582606686</v>
+        <v>2859020.481150512</v>
       </c>
       <c r="AE9">
-        <v>625286.1493769353</v>
+        <v>824082.7131056032</v>
       </c>
       <c r="AF9">
-        <v>650292.2266062174</v>
+        <v>863578.2522045943</v>
       </c>
       <c r="AG9">
-        <v>621797.593318012</v>
+        <v>823982.1744581158</v>
       </c>
       <c r="BL9">
-        <v>491026.25</v>
+        <v>556200</v>
       </c>
       <c r="BM9">
         <v>0</v>
@@ -1526,52 +1526,52 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10">
-        <v>817.0400512341134</v>
+        <v>1018.803249083488</v>
       </c>
       <c r="B10">
-        <v>800.7042303979008</v>
+        <v>1002.467428247264</v>
       </c>
       <c r="C10">
-        <v>816.1963983401096</v>
+        <v>1017.959596189476</v>
       </c>
       <c r="E10">
-        <v>720.5496503810953</v>
+        <v>903.7562978208823</v>
       </c>
       <c r="F10">
-        <v>703.2259924989144</v>
+        <v>885.9636713883802</v>
       </c>
       <c r="G10">
-        <v>720.7167205744116</v>
+        <v>903.2950077706453</v>
       </c>
       <c r="S10">
-        <v>0.2750877588175671</v>
+        <v>0.2619169224061406</v>
       </c>
       <c r="T10">
-        <v>0.2859311982959488</v>
+        <v>0.2720478980553774</v>
       </c>
       <c r="U10">
-        <v>0.2749724847492013</v>
+        <v>0.2637248596586412</v>
       </c>
       <c r="AA10">
-        <v>2494297.083246212</v>
+        <v>3124073.829204191</v>
       </c>
       <c r="AB10">
-        <v>2442806.568341062</v>
+        <v>3072583.314299042</v>
       </c>
       <c r="AC10">
-        <v>2492844.317985422</v>
+        <v>3122621.063943401</v>
       </c>
       <c r="AE10">
-        <v>686150.5944553949</v>
+        <v>818247.8027147288</v>
       </c>
       <c r="AF10">
-        <v>698474.6092909746</v>
+        <v>835889.8322550795</v>
       </c>
       <c r="AG10">
-        <v>685463.5962093795</v>
+        <v>823512.8018555903</v>
       </c>
       <c r="BL10">
-        <v>677521</v>
+        <v>503240</v>
       </c>
       <c r="BM10">
         <v>0</v>
@@ -1591,52 +1591,52 @@
     </row>
     <row r="11" spans="1:70">
       <c r="A11">
-        <v>1613.466251293232</v>
+        <v>1603.291274068684</v>
       </c>
       <c r="B11">
-        <v>1600.476876824716</v>
+        <v>1590.301899600164</v>
       </c>
       <c r="C11">
-        <v>1610.286638485383</v>
+        <v>1600.111661260833</v>
       </c>
       <c r="E11">
-        <v>1433.081009009168</v>
+        <v>1419.295150269051</v>
       </c>
       <c r="F11">
-        <v>1411.113951733035</v>
+        <v>1392.002718236536</v>
       </c>
       <c r="G11">
-        <v>1430.547105187996</v>
+        <v>1417.629411151948</v>
       </c>
       <c r="S11">
-        <v>0.2598576105261189</v>
+        <v>0.2678969257893359</v>
       </c>
       <c r="T11">
-        <v>0.2792662104611802</v>
+        <v>0.295415365632712</v>
       </c>
       <c r="U11">
-        <v>0.2637537113192119</v>
+        <v>0.2702299285730784</v>
       </c>
       <c r="AA11">
-        <v>4897230.886615502</v>
+        <v>4833601.276134817</v>
       </c>
       <c r="AB11">
-        <v>4856042.050973481</v>
+        <v>4792412.440492794</v>
       </c>
       <c r="AC11">
-        <v>4888383.562071877</v>
+        <v>4824753.95159119</v>
       </c>
       <c r="AE11">
-        <v>1272582.716390611</v>
+        <v>1294906.922367928</v>
       </c>
       <c r="AF11">
-        <v>1356128.461415502</v>
+        <v>1415752.273370937</v>
       </c>
       <c r="AG11">
-        <v>1289329.306848286</v>
+        <v>1303792.915721165</v>
       </c>
       <c r="BL11">
-        <v>1409506.25</v>
+        <v>1583676.5</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -1656,52 +1656,52 @@
     </row>
     <row r="12" spans="1:70">
       <c r="A12">
-        <v>1105.580417474746</v>
+        <v>843.7925254308441</v>
       </c>
       <c r="B12">
-        <v>1098.951182560701</v>
+        <v>837.1632905167924</v>
       </c>
       <c r="C12">
-        <v>1102.409542716148</v>
+        <v>840.6216506722421</v>
       </c>
       <c r="E12">
-        <v>970.1055330359859</v>
+        <v>740.001453653323</v>
       </c>
       <c r="F12">
-        <v>959.3844043413524</v>
+        <v>728.2993378410788</v>
       </c>
       <c r="G12">
-        <v>970.5731246663709</v>
+        <v>737.712852165195</v>
       </c>
       <c r="S12">
-        <v>0.2564714064240438</v>
+        <v>0.2595413201847503</v>
       </c>
       <c r="T12">
-        <v>0.2696417066852282</v>
+        <v>0.2760279238343548</v>
       </c>
       <c r="U12">
-        <v>0.2536622126842008</v>
+        <v>0.2602154986470361</v>
       </c>
       <c r="AA12">
-        <v>3190651.625991098</v>
+        <v>2422619.965906792</v>
       </c>
       <c r="AB12">
-        <v>3168184.62712756</v>
+        <v>2400152.967043255</v>
       </c>
       <c r="AC12">
-        <v>3185930.933622883</v>
+        <v>2417899.273538578</v>
       </c>
       <c r="AE12">
-        <v>818310.909927099</v>
+        <v>628769.9842573837</v>
       </c>
       <c r="AF12">
-        <v>854274.7099525788</v>
+        <v>662509.2403778165</v>
       </c>
       <c r="AG12">
-        <v>808150.2900818222</v>
+        <v>629174.8651421474</v>
       </c>
       <c r="BL12">
-        <v>546859.5</v>
+        <v>480457.5</v>
       </c>
       <c r="BM12">
         <v>0</v>
@@ -1721,52 +1721,52 @@
     </row>
     <row r="13" spans="1:70">
       <c r="A13">
-        <v>1352.176331285969</v>
+        <v>1406.418449203563</v>
       </c>
       <c r="B13">
-        <v>1343.258013569063</v>
+        <v>1397.500131486669</v>
       </c>
       <c r="C13">
-        <v>1347.848171640734</v>
+        <v>1402.090289558331</v>
       </c>
       <c r="E13">
-        <v>1187.70054824556</v>
+        <v>1225.986097563273</v>
       </c>
       <c r="F13">
-        <v>1169.52211016136</v>
+        <v>1210.728900881724</v>
       </c>
       <c r="G13">
-        <v>1182.255824817707</v>
+        <v>1223.117825962024</v>
       </c>
       <c r="S13">
-        <v>0.2573717004009116</v>
+        <v>0.271993026578143</v>
       </c>
       <c r="T13">
-        <v>0.2793121056895184</v>
+        <v>0.2883962229472253</v>
       </c>
       <c r="U13">
-        <v>0.2644446172231572</v>
+        <v>0.2751843463768736</v>
       </c>
       <c r="AA13">
-        <v>3846584.211612082</v>
+        <v>3996476.348555914</v>
       </c>
       <c r="AB13">
-        <v>3818708.284758972</v>
+        <v>3968600.421702803</v>
       </c>
       <c r="AC13">
-        <v>3837338.330296963</v>
+        <v>3987230.467240795</v>
       </c>
       <c r="AE13">
-        <v>990001.9192779014</v>
+        <v>1087013.697691689</v>
       </c>
       <c r="AF13">
-        <v>1066611.452030038</v>
+        <v>1144529.372005854</v>
       </c>
       <c r="AG13">
-        <v>1014763.46591113</v>
+        <v>1097223.409981615</v>
       </c>
       <c r="BL13">
-        <v>1396390.5</v>
+        <v>1454374.5</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -1786,52 +1786,52 @@
     </row>
     <row r="14" spans="1:70">
       <c r="A14">
-        <v>1764.252713672595</v>
+        <v>1828.02077967506</v>
       </c>
       <c r="B14">
-        <v>1762.100060071274</v>
+        <v>1825.868126073752</v>
       </c>
       <c r="C14">
-        <v>1747.101937619372</v>
+        <v>1810.870003621839</v>
       </c>
       <c r="E14">
-        <v>1556.384874550094</v>
+        <v>1600.663205402918</v>
       </c>
       <c r="F14">
-        <v>1537.561221936378</v>
+        <v>1585.246874834639</v>
       </c>
       <c r="G14">
-        <v>1537.880213515806</v>
+        <v>1589.042915876581</v>
       </c>
       <c r="S14">
-        <v>0.2504403858656065</v>
+        <v>0.2648510880000847</v>
       </c>
       <c r="T14">
-        <v>0.2760281537606862</v>
+        <v>0.2848341407838019</v>
       </c>
       <c r="U14">
-        <v>0.2588135696801023</v>
+        <v>0.2641173001755326</v>
       </c>
       <c r="AA14">
-        <v>5005611.386764345</v>
+        <v>5182254.23728136</v>
       </c>
       <c r="AB14">
-        <v>4988421.390817464</v>
+        <v>5165064.241334478</v>
       </c>
       <c r="AC14">
-        <v>4954741.754167725</v>
+        <v>5131384.604684739</v>
       </c>
       <c r="AE14">
-        <v>1253607.247194536</v>
+        <v>1372525.673037017</v>
       </c>
       <c r="AF14">
-        <v>1376944.746687659</v>
+        <v>1471186.635273646</v>
       </c>
       <c r="AG14">
-        <v>1282354.400239201</v>
+        <v>1355287.447951626</v>
       </c>
       <c r="BL14">
-        <v>1793899.25</v>
+        <v>1833960</v>
       </c>
       <c r="BM14">
         <v>0</v>
@@ -1851,52 +1851,52 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15">
-        <v>3166.576663927589</v>
+        <v>3096.401341200947</v>
       </c>
       <c r="B15">
-        <v>3110.031918678099</v>
+        <v>3039.856595951443</v>
       </c>
       <c r="C15">
-        <v>3123.608379589328</v>
+        <v>3053.433056862676</v>
       </c>
       <c r="E15">
-        <v>2860.631096066905</v>
+        <v>2794.637806776827</v>
       </c>
       <c r="F15">
-        <v>2792.285309833176</v>
+        <v>2719.800612422523</v>
       </c>
       <c r="G15">
-        <v>2819.434420948921</v>
+        <v>2748.076865026921</v>
       </c>
       <c r="S15">
-        <v>0.2202687303410301</v>
+        <v>0.2223640595246616</v>
       </c>
       <c r="T15">
-        <v>0.23393284111167</v>
+        <v>0.241973279416379</v>
       </c>
       <c r="U15">
-        <v>0.223756061718253</v>
+        <v>0.2294801941698988</v>
       </c>
       <c r="AA15">
-        <v>9120364.395367917</v>
+        <v>8916511.896310616</v>
       </c>
       <c r="AB15">
-        <v>8954712.995452158</v>
+        <v>8750860.496394858</v>
       </c>
       <c r="AC15">
-        <v>8991871.559853051</v>
+        <v>8788019.06079575</v>
       </c>
       <c r="AE15">
-        <v>2008931.085615228</v>
+        <v>1982711.782063567</v>
       </c>
       <c r="AF15">
-        <v>2094801.452365716</v>
+        <v>2117474.412027906</v>
       </c>
       <c r="AG15">
-        <v>2011985.767709083</v>
+        <v>2016676.320440181</v>
       </c>
       <c r="BL15">
-        <v>2360112.5</v>
+        <v>2348040</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -1916,52 +1916,52 @@
     </row>
     <row r="16" spans="1:70">
       <c r="A16">
-        <v>902.0311968961175</v>
+        <v>955.9688859262515</v>
       </c>
       <c r="B16">
-        <v>877.0234077537174</v>
+        <v>930.9610967838435</v>
       </c>
       <c r="C16">
-        <v>904.1655792721961</v>
+        <v>958.1032683023316</v>
       </c>
       <c r="E16">
-        <v>788.1806710952633</v>
+        <v>837.8396111870057</v>
       </c>
       <c r="F16">
-        <v>763.8842400344976</v>
+        <v>813.1867311306016</v>
       </c>
       <c r="G16">
-        <v>790.447800684661</v>
+        <v>840.8691317579292</v>
       </c>
       <c r="S16">
-        <v>0.2884837226942359</v>
+        <v>0.2818942244852312</v>
       </c>
       <c r="T16">
-        <v>0.2954022911836722</v>
+        <v>0.2897371176329189</v>
       </c>
       <c r="U16">
-        <v>0.2885164472223634</v>
+        <v>0.280419041669479</v>
       </c>
       <c r="AA16">
-        <v>2604692.560796206</v>
+        <v>2763276.685433095</v>
       </c>
       <c r="AB16">
-        <v>2531642.469004965</v>
+        <v>2690226.593641855</v>
       </c>
       <c r="AC16">
-        <v>2610214.459563581</v>
+        <v>2768798.58420047</v>
       </c>
       <c r="AE16">
-        <v>751411.4064124719</v>
+        <v>778951.7382782825</v>
       </c>
       <c r="AF16">
-        <v>747852.9858019556</v>
+        <v>779458.4990212168</v>
       </c>
       <c r="AG16">
-        <v>753089.8023617258</v>
+        <v>776423.845557306</v>
       </c>
       <c r="BL16">
-        <v>694358.5</v>
+        <v>559650</v>
       </c>
       <c r="BM16">
         <v>0</v>
@@ -1981,52 +1981,52 @@
     </row>
     <row r="17" spans="1:70">
       <c r="A17">
-        <v>1284.899849982347</v>
+        <v>1188.72852494282</v>
       </c>
       <c r="B17">
-        <v>1269.579832339351</v>
+        <v>1173.408507299838</v>
       </c>
       <c r="C17">
-        <v>1286.730111686724</v>
+        <v>1190.558786647197</v>
       </c>
       <c r="E17">
-        <v>1148.283705461352</v>
+        <v>1060.706493799126</v>
       </c>
       <c r="F17">
-        <v>1127.185031153156</v>
+        <v>1041.213097215939</v>
       </c>
       <c r="G17">
-        <v>1152.153933577863</v>
+        <v>1064.342209950736</v>
       </c>
       <c r="S17">
-        <v>0.2457902047375998</v>
+        <v>0.2493088802788369</v>
       </c>
       <c r="T17">
-        <v>0.2613416907649184</v>
+        <v>0.2631287758447013</v>
       </c>
       <c r="U17">
-        <v>0.2450290106853699</v>
+        <v>0.2484391185158213</v>
       </c>
       <c r="AA17">
-        <v>3946517.14566197</v>
+        <v>3645945.669181629</v>
       </c>
       <c r="AB17">
-        <v>3897291.609418338</v>
+        <v>3596720.132937996</v>
       </c>
       <c r="AC17">
-        <v>3954945.250470878</v>
+        <v>3654373.773990536</v>
       </c>
       <c r="AE17">
-        <v>970015.2572327035</v>
+        <v>908966.6323411465</v>
       </c>
       <c r="AF17">
-        <v>1018524.778609318</v>
+        <v>946400.5656359661</v>
       </c>
       <c r="AG17">
-        <v>969076.3220376818</v>
+        <v>907889.399137544</v>
       </c>
       <c r="BL17">
-        <v>882149.25</v>
+        <v>837567</v>
       </c>
       <c r="BM17">
         <v>0</v>
@@ -2046,52 +2046,52 @@
     </row>
     <row r="18" spans="1:70">
       <c r="A18">
-        <v>1002.497597611453</v>
+        <v>971.8350238552566</v>
       </c>
       <c r="B18">
-        <v>992.7555667600441</v>
+        <v>962.0929930038637</v>
       </c>
       <c r="C18">
-        <v>1000.112888005555</v>
+        <v>969.4503142493636</v>
       </c>
       <c r="E18">
-        <v>889.7379776897208</v>
+        <v>856.9646263280611</v>
       </c>
       <c r="F18">
-        <v>876.9381515887421</v>
+        <v>845.6427315282306</v>
       </c>
       <c r="G18">
-        <v>890.0086110294369</v>
+        <v>858.4298996677996</v>
       </c>
       <c r="S18">
-        <v>0.2620828807998242</v>
+        <v>0.274664455653075</v>
       </c>
       <c r="T18">
-        <v>0.2729772705099846</v>
+        <v>0.2845930266172287</v>
       </c>
       <c r="U18">
-        <v>0.2590172749604853</v>
+        <v>0.2697290587820438</v>
       </c>
       <c r="AA18">
-        <v>3059246.334603091</v>
+        <v>2961745.475352193</v>
       </c>
       <c r="AB18">
-        <v>3028354.707871574</v>
+        <v>2930853.848620676</v>
       </c>
       <c r="AC18">
-        <v>3052610.84119537</v>
+        <v>2955109.981944473</v>
       </c>
       <c r="AE18">
-        <v>801776.0924490809</v>
+        <v>813486.208770568</v>
       </c>
       <c r="AF18">
-        <v>826672.002290844</v>
+        <v>834100.5673517113</v>
       </c>
       <c r="AG18">
-        <v>790678.9416012595</v>
+        <v>797079.034027305</v>
       </c>
       <c r="BL18">
-        <v>537339.5</v>
+        <v>635110.5</v>
       </c>
       <c r="BM18">
         <v>0</v>
@@ -2111,52 +2111,52 @@
     </row>
     <row r="19" spans="1:70">
       <c r="A19">
-        <v>1373.204064764405</v>
+        <v>1573.407936341677</v>
       </c>
       <c r="B19">
-        <v>1358.915752849021</v>
+        <v>1559.119624426301</v>
       </c>
       <c r="C19">
-        <v>1369.706490675756</v>
+        <v>1569.910362253032</v>
       </c>
       <c r="E19">
-        <v>1214.076348028957</v>
+        <v>1385.616976626062</v>
       </c>
       <c r="F19">
-        <v>1195.428813444327</v>
+        <v>1364.112927457648</v>
       </c>
       <c r="G19">
-        <v>1210.29343948554</v>
+        <v>1383.349361745102</v>
       </c>
       <c r="S19">
-        <v>0.2694570177797501</v>
+        <v>0.2780436954405606</v>
       </c>
       <c r="T19">
-        <v>0.2841709418880189</v>
+        <v>0.2951634029287323</v>
       </c>
       <c r="U19">
-        <v>0.2740900102651521</v>
+        <v>0.2810174173708728</v>
       </c>
       <c r="AA19">
-        <v>4177512.230924721</v>
+        <v>4781551.245601107</v>
       </c>
       <c r="AB19">
-        <v>4132204.511718497</v>
+        <v>4736243.526394883</v>
       </c>
       <c r="AC19">
-        <v>4167780.173926732</v>
+        <v>4771819.188603119</v>
       </c>
       <c r="AE19">
-        <v>1125659.987483406</v>
+        <v>1329480.178265348</v>
       </c>
       <c r="AF19">
-        <v>1174252.448168967</v>
+        <v>1397965.756349893</v>
       </c>
       <c r="AG19">
-        <v>1142346.910654475</v>
+        <v>1340964.304542023</v>
       </c>
       <c r="BL19">
-        <v>1315611.5</v>
+        <v>1664601</v>
       </c>
       <c r="BM19">
         <v>0</v>
@@ -2176,52 +2176,52 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20">
-        <v>1815.014788161686</v>
+        <v>1789.562951101972</v>
       </c>
       <c r="B20">
-        <v>1800.460249859706</v>
+        <v>1775.008412799979</v>
       </c>
       <c r="C20">
-        <v>1802.818807902764</v>
+        <v>1777.366970843043</v>
       </c>
       <c r="E20">
-        <v>1601.247268968114</v>
+        <v>1562.778731058208</v>
       </c>
       <c r="F20">
-        <v>1572.506063694554</v>
+        <v>1531.168624498153</v>
       </c>
       <c r="G20">
-        <v>1591.071296322821</v>
+        <v>1552.058121650341</v>
       </c>
       <c r="S20">
-        <v>0.2478848514993965</v>
+        <v>0.2690416524117127</v>
       </c>
       <c r="T20">
-        <v>0.2703850178129859</v>
+        <v>0.2963227564175884</v>
       </c>
       <c r="U20">
-        <v>0.2515008872062234</v>
+        <v>0.2738424743994061</v>
       </c>
       <c r="AA20">
-        <v>5188299.084974997</v>
+        <v>5074914.786188964</v>
       </c>
       <c r="AB20">
-        <v>5141635.75617162</v>
+        <v>5028251.457385588</v>
       </c>
       <c r="AC20">
-        <v>5152827.134947578</v>
+        <v>5039442.836161545</v>
       </c>
       <c r="AE20">
-        <v>1286100.748213482</v>
+        <v>1365363.459924913</v>
       </c>
       <c r="AF20">
-        <v>1390221.275520349</v>
+        <v>1489985.331813253</v>
       </c>
       <c r="AG20">
-        <v>1295940.596059619</v>
+        <v>1380013.495848838</v>
       </c>
       <c r="BL20">
-        <v>1062561.5</v>
+        <v>1724996</v>
       </c>
       <c r="BM20">
         <v>0</v>
@@ -2241,52 +2241,52 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21">
-        <v>1822.797044097075</v>
+        <v>2031.614015511118</v>
       </c>
       <c r="B21">
-        <v>1796.919424470451</v>
+        <v>2005.736395884474</v>
       </c>
       <c r="C21">
-        <v>1821.328765719284</v>
+        <v>2030.145737133317</v>
       </c>
       <c r="E21">
-        <v>1617.615802360739</v>
+        <v>1783.948963494794</v>
       </c>
       <c r="F21">
-        <v>1587.233383367863</v>
+        <v>1746.564393417281</v>
       </c>
       <c r="G21">
-        <v>1615.240716288848</v>
+        <v>1779.945603442196</v>
       </c>
       <c r="S21">
-        <v>0.2391064924967545</v>
+        <v>0.2561461620295352</v>
       </c>
       <c r="T21">
-        <v>0.2510660580524298</v>
+        <v>0.2755057692489483</v>
       </c>
       <c r="U21">
-        <v>0.2428837983514828</v>
+        <v>0.2631260711380475</v>
       </c>
       <c r="AA21">
-        <v>5210196.541058177</v>
+        <v>5782463.913601627</v>
       </c>
       <c r="AB21">
-        <v>5132960.768700455</v>
+        <v>5705228.141243903</v>
       </c>
       <c r="AC21">
-        <v>5208017.393166992</v>
+        <v>5780284.76571044</v>
       </c>
       <c r="AE21">
-        <v>1245791.820151143</v>
+        <v>1481155.938543343</v>
       </c>
       <c r="AF21">
-        <v>1288712.226335393</v>
+        <v>1571823.267794149</v>
       </c>
       <c r="AG21">
-        <v>1264943.046332987</v>
+        <v>1520943.620460498</v>
       </c>
       <c r="BL21">
-        <v>1190328.75</v>
+        <v>1732405.5</v>
       </c>
       <c r="BM21">
         <v>0</v>
@@ -2306,52 +2306,52 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22">
-        <v>1993.59883815852</v>
+        <v>2618.349780796837</v>
       </c>
       <c r="B22">
-        <v>1947.41911210174</v>
+        <v>2572.170054740018</v>
       </c>
       <c r="C22">
-        <v>1992.855418517583</v>
+        <v>2617.606361155883</v>
       </c>
       <c r="E22">
-        <v>1800.253211990673</v>
+        <v>2318.177130897814</v>
       </c>
       <c r="F22">
-        <v>1749.199886162591</v>
+        <v>2266.207315574831</v>
       </c>
       <c r="G22">
-        <v>1797.569090220925</v>
+        <v>2327.566016600436</v>
       </c>
       <c r="S22">
-        <v>0.207140062937538</v>
+        <v>0.2401352215190714</v>
       </c>
       <c r="T22">
-        <v>0.2181608623278788</v>
+        <v>0.2526930114026454</v>
       </c>
       <c r="U22">
-        <v>0.2117127982245716</v>
+        <v>0.2361829652835829</v>
       </c>
       <c r="AA22">
-        <v>5685653.184381188</v>
+        <v>7459191.457954907</v>
       </c>
       <c r="AB22">
-        <v>5550350.511706367</v>
+        <v>7323888.785280086</v>
       </c>
       <c r="AC22">
-        <v>5683358.40336886</v>
+        <v>7456896.676942581</v>
       </c>
       <c r="AE22">
-        <v>1177726.558453732</v>
+        <v>1791214.593109166</v>
       </c>
       <c r="AF22">
-        <v>1210869.253855844</v>
+        <v>1850695.512330488</v>
       </c>
       <c r="AG22">
-        <v>1203239.710890355</v>
+        <v>1761191.968973594</v>
       </c>
       <c r="BL22">
-        <v>783768</v>
+        <v>1703073</v>
       </c>
       <c r="BM22">
         <v>0</v>
@@ -2371,52 +2371,52 @@
     </row>
     <row r="23" spans="1:70">
       <c r="A23">
-        <v>2736.348556106141</v>
+        <v>2564.51604173605</v>
       </c>
       <c r="B23">
-        <v>2749.232559396346</v>
+        <v>2577.400045026234</v>
       </c>
       <c r="C23">
-        <v>2696.157850863309</v>
+        <v>2524.325336493217</v>
       </c>
       <c r="E23">
-        <v>2465.760468421191</v>
+        <v>2296.966319682084</v>
       </c>
       <c r="F23">
-        <v>2444.597111288791</v>
+        <v>2291.147023815763</v>
       </c>
       <c r="G23">
-        <v>2410.558980018461</v>
+        <v>2258.437445475027</v>
       </c>
       <c r="S23">
-        <v>0.2261076710061357</v>
+        <v>0.2385785388356167</v>
       </c>
       <c r="T23">
-        <v>0.2544414069335354</v>
+        <v>0.2555748732952162</v>
       </c>
       <c r="U23">
-        <v>0.2435553364657123</v>
+        <v>0.2426943443494954</v>
       </c>
       <c r="AA23">
-        <v>7871142.232441226</v>
+        <v>7386939.351017719</v>
       </c>
       <c r="AB23">
-        <v>7905126.846480915</v>
+        <v>7420923.965057408</v>
       </c>
       <c r="AC23">
-        <v>7752533.843278157</v>
+        <v>7268330.96185465</v>
       </c>
       <c r="AE23">
-        <v>1779725.638335321</v>
+        <v>1762365.196833126</v>
       </c>
       <c r="AF23">
-        <v>2011391.596806666</v>
+        <v>1896601.70210298</v>
       </c>
       <c r="AG23">
-        <v>1888170.988661433</v>
+        <v>1763982.817302452</v>
       </c>
       <c r="BL23">
-        <v>2764821.5</v>
+        <v>2309743.25</v>
       </c>
       <c r="BM23">
         <v>0</v>
@@ -2436,52 +2436,52 @@
     </row>
     <row r="24" spans="1:70">
       <c r="A24">
-        <v>857.9293027112001</v>
+        <v>939.2903443963307</v>
       </c>
       <c r="B24">
-        <v>856.7437401620198</v>
+        <v>938.1047818471478</v>
       </c>
       <c r="C24">
-        <v>846.412386896876</v>
+        <v>927.7734285820072</v>
       </c>
       <c r="E24">
-        <v>749.2624806864877</v>
+        <v>818.3595603728847</v>
       </c>
       <c r="F24">
-        <v>743.4620784060182</v>
+        <v>810.2950614641023</v>
       </c>
       <c r="G24">
-        <v>738.0512992507597</v>
+        <v>807.0964135188792</v>
       </c>
       <c r="S24">
-        <v>0.2886386097799739</v>
+        <v>0.2937344022269542</v>
       </c>
       <c r="T24">
-        <v>0.3026864272999742</v>
+        <v>0.3121577772014171</v>
       </c>
       <c r="U24">
-        <v>0.2932996579356567</v>
+        <v>0.2981237649077679</v>
       </c>
       <c r="AA24">
-        <v>2480832.671246965</v>
+        <v>2714077.903981004</v>
       </c>
       <c r="AB24">
-        <v>2475904.792935924</v>
+        <v>2709150.025669963</v>
       </c>
       <c r="AC24">
-        <v>2446772.875810301</v>
+        <v>2680018.10854434</v>
       </c>
       <c r="AE24">
-        <v>716064.0933254631</v>
+        <v>797218.0507232449</v>
       </c>
       <c r="AF24">
-        <v>749422.7761086574</v>
+        <v>845682.2501182978</v>
       </c>
       <c r="AG24">
-        <v>717637.6475214044</v>
+        <v>798977.0885402334</v>
       </c>
       <c r="BL24">
-        <v>506844</v>
+        <v>686000</v>
       </c>
       <c r="BM24">
         <v>0</v>
@@ -2501,52 +2501,52 @@
     </row>
     <row r="25" spans="1:70">
       <c r="A25">
-        <v>1010.10855757376</v>
+        <v>1120.606809597021</v>
       </c>
       <c r="B25">
-        <v>987.2643960529557</v>
+        <v>1097.762648076228</v>
       </c>
       <c r="C25">
-        <v>1011.410960040596</v>
+        <v>1121.909212063864</v>
       </c>
       <c r="E25">
-        <v>902.1806425263394</v>
+        <v>998.1346424405291</v>
       </c>
       <c r="F25">
-        <v>878.1691285438758</v>
+        <v>973.1816861450438</v>
       </c>
       <c r="G25">
-        <v>904.4104696891388</v>
+        <v>1002.18059928916</v>
       </c>
       <c r="S25">
-        <v>0.2485714729857238</v>
+        <v>0.2534399865243195</v>
       </c>
       <c r="T25">
-        <v>0.2587922405464689</v>
+        <v>0.2656544718707051</v>
       </c>
       <c r="U25">
-        <v>0.2478925246765525</v>
+        <v>0.2500787963579488</v>
       </c>
       <c r="AA25">
-        <v>3095393.915610407</v>
+        <v>3442848.241327669</v>
       </c>
       <c r="AB25">
-        <v>3024615.319261394</v>
+        <v>3372069.644978656</v>
       </c>
       <c r="AC25">
-        <v>3099963.609401188</v>
+        <v>3447417.935118449</v>
       </c>
       <c r="AE25">
-        <v>769426.6250743263</v>
+        <v>872555.4118873616</v>
       </c>
       <c r="AF25">
-        <v>782746.9752628298</v>
+        <v>895805.380648041</v>
       </c>
       <c r="AG25">
-        <v>768457.8055398986</v>
+        <v>862126.127757227</v>
       </c>
       <c r="BL25">
-        <v>515496</v>
+        <v>502665.75</v>
       </c>
       <c r="BM25">
         <v>0</v>
@@ -2566,52 +2566,52 @@
     </row>
     <row r="26" spans="1:70">
       <c r="A26">
-        <v>1243.137698874875</v>
+        <v>1519.467715895625</v>
       </c>
       <c r="B26">
-        <v>1231.447261853198</v>
+        <v>1507.77727887392</v>
       </c>
       <c r="C26">
-        <v>1240.276047347797</v>
+        <v>1516.606064368543</v>
       </c>
       <c r="E26">
-        <v>1098.844376908485</v>
+        <v>1339.874847593274</v>
       </c>
       <c r="F26">
-        <v>1081.620806919683</v>
+        <v>1319.149804711834</v>
       </c>
       <c r="G26">
-        <v>1096.969927585161</v>
+        <v>1338.748667484291</v>
       </c>
       <c r="S26">
-        <v>0.2711152430503275</v>
+        <v>0.2760399886431542</v>
       </c>
       <c r="T26">
-        <v>0.2868748050909924</v>
+        <v>0.2949192702925489</v>
       </c>
       <c r="U26">
-        <v>0.2737212142459952</v>
+        <v>0.2778464082060872</v>
       </c>
       <c r="AA26">
-        <v>3778598.397171693</v>
+        <v>4607004.677186721</v>
       </c>
       <c r="AB26">
-        <v>3741528.445093874</v>
+        <v>4569934.725108901</v>
       </c>
       <c r="AC26">
-        <v>3770635.805082429</v>
+        <v>4599042.085097457</v>
       </c>
       <c r="AE26">
-        <v>1024435.622838781</v>
+        <v>1271717.518769581</v>
       </c>
       <c r="AF26">
-        <v>1073350.243428709</v>
+        <v>1347761.814413697</v>
       </c>
       <c r="AG26">
-        <v>1032103.011046588</v>
+        <v>1277827.324532963</v>
       </c>
       <c r="BL26">
-        <v>1156438.5</v>
+        <v>1623600</v>
       </c>
       <c r="BM26">
         <v>0</v>

--- a/example_2/main_results.xlsx
+++ b/example_2/main_results.xlsx
@@ -705,28 +705,28 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3">
-        <v>797.8792488031239</v>
+        <v>1005.252008826149</v>
       </c>
       <c r="B3">
-        <v>790.0856241220147</v>
+        <v>997.4583841450358</v>
       </c>
       <c r="C3">
-        <v>795.9714811184119</v>
+        <v>1003.344241141435</v>
       </c>
       <c r="E3">
-        <v>698.0691669807461</v>
+        <v>883.1757783551733</v>
       </c>
       <c r="F3">
-        <v>687.7687423627171</v>
+        <v>872.4728469247757</v>
       </c>
       <c r="G3">
-        <v>696.8386870556468</v>
+        <v>881.3048011685535</v>
       </c>
       <c r="I3">
         <v>1821.4922821219</v>
       </c>
       <c r="K3">
-        <v>6451.268137460163</v>
+        <v>6396.042806509782</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -735,40 +735,40 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.6354372045355206</v>
+        <v>0.6278575222754883</v>
       </c>
       <c r="S3">
-        <v>0.2913549158007916</v>
+        <v>0.2827016738977652</v>
       </c>
       <c r="T3">
-        <v>0.3048172208031309</v>
+        <v>0.2945561719434509</v>
       </c>
       <c r="U3">
-        <v>0.2939555437515638</v>
+        <v>0.2860983742578033</v>
       </c>
       <c r="W3">
-        <v>16601207.95718336</v>
+        <v>16946366.27562298</v>
       </c>
       <c r="Y3">
         <v>45537307.0530475</v>
       </c>
       <c r="AA3">
-        <v>2427697.058505212</v>
+        <v>3068766.571455711</v>
       </c>
       <c r="AB3">
-        <v>2402983.757119999</v>
+        <v>3044053.270070498</v>
       </c>
       <c r="AC3">
-        <v>2422388.663779037</v>
+        <v>3063458.176729535</v>
       </c>
       <c r="AE3">
-        <v>707321.4720706154</v>
+        <v>867545.4465520353</v>
       </c>
       <c r="AF3">
-        <v>732470.8304803839</v>
+        <v>896644.6784239095</v>
       </c>
       <c r="AG3">
-        <v>712074.5768387908</v>
+        <v>876450.4039690943</v>
       </c>
       <c r="AI3">
         <v>7281.394624793094</v>
@@ -777,79 +777,79 @@
         <v>17</v>
       </c>
       <c r="AM3">
-        <v>174619.5860319744</v>
+        <v>190385.5079191834</v>
       </c>
       <c r="AN3">
-        <v>362112.4991256031</v>
+        <v>230881.3224602181</v>
       </c>
       <c r="AO3">
-        <v>278779.9347240999</v>
+        <v>235456.2537363414</v>
       </c>
       <c r="AP3">
-        <v>753390.1964354373</v>
+        <v>672019.9999627917</v>
       </c>
       <c r="AQ3">
-        <v>633703.1042454761</v>
+        <v>520715.0044526028</v>
       </c>
       <c r="AR3">
-        <v>675994.3363265407</v>
+        <v>572437.7840797747</v>
       </c>
       <c r="AS3">
-        <v>78935.94173167797</v>
+        <v>194486.7759931537</v>
       </c>
       <c r="AT3">
-        <v>164608.5133764124</v>
+        <v>141088.180324209</v>
       </c>
       <c r="AU3">
-        <v>720932.3378892926</v>
+        <v>525001.1927890162</v>
       </c>
       <c r="AV3">
-        <v>398371.7885075719</v>
+        <v>413185.2423629801</v>
       </c>
       <c r="AW3">
-        <v>276333.4521562256</v>
+        <v>261729.0007069592</v>
       </c>
       <c r="AX3">
-        <v>432079.1671276371</v>
+        <v>365336.0978456349</v>
       </c>
       <c r="AY3">
-        <v>494842.4171431407</v>
+        <v>662988.259342404</v>
       </c>
       <c r="AZ3">
-        <v>110767.7409428603</v>
+        <v>36892.31995485383</v>
       </c>
       <c r="BA3">
-        <v>128367.3633274213</v>
+        <v>193340.3351854838</v>
       </c>
       <c r="BB3">
-        <v>194614.4841058206</v>
+        <v>337997.673285624</v>
       </c>
       <c r="BC3">
-        <v>100273.4238902601</v>
+        <v>161184.2652585362</v>
       </c>
       <c r="BD3">
-        <v>271571.9396728143</v>
+        <v>275767.533121659</v>
       </c>
       <c r="BE3">
-        <v>670829.2365212645</v>
+        <v>458034.3774542027</v>
       </c>
       <c r="BF3">
-        <v>616034.6636734593</v>
+        <v>425796.5444578119</v>
       </c>
       <c r="BG3">
-        <v>590662.9066937875</v>
+        <v>540834.826088035</v>
       </c>
       <c r="BH3">
-        <v>21246.35159437906</v>
+        <v>37752.79472137125</v>
       </c>
       <c r="BI3">
-        <v>194614.9972465799</v>
+        <v>221369.1140436827</v>
       </c>
       <c r="BJ3">
-        <v>214832.9679759882</v>
+        <v>295166.5251714686</v>
       </c>
       <c r="BL3">
-        <v>533916.25</v>
+        <v>547878.5</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -869,67 +869,67 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4">
-        <v>1426.280474657687</v>
+        <v>1255.581173560398</v>
       </c>
       <c r="B4">
-        <v>1426.043426759347</v>
+        <v>1255.344125662057</v>
       </c>
       <c r="C4">
-        <v>1409.53882527638</v>
+        <v>1238.839524179086</v>
       </c>
       <c r="E4">
-        <v>1239.373991646767</v>
+        <v>1086.832420115572</v>
       </c>
       <c r="F4">
-        <v>1227.636307573435</v>
+        <v>1076.205166217584</v>
       </c>
       <c r="G4">
-        <v>1226.823854190825</v>
+        <v>1073.293509393149</v>
       </c>
       <c r="I4">
         <v>2071.45402065881</v>
       </c>
       <c r="K4">
-        <v>6961.149276609145</v>
+        <v>6889.128622168766</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.5901283841187055</v>
+        <v>0.5814363429579954</v>
       </c>
       <c r="S4">
-        <v>0.276306137469254</v>
+        <v>0.2846415390092586</v>
       </c>
       <c r="T4">
-        <v>0.2964989002270083</v>
+        <v>0.3068543537355672</v>
       </c>
       <c r="U4">
-        <v>0.2778987084290993</v>
+        <v>0.2882595684315169</v>
       </c>
       <c r="W4">
-        <v>21225755.16678078</v>
+        <v>21675884.2570329</v>
       </c>
       <c r="Y4">
         <v>51786350.51647026</v>
       </c>
       <c r="AA4">
-        <v>4061898.292287056</v>
+        <v>3560236.029968575</v>
       </c>
       <c r="AB4">
-        <v>4054431.809997601</v>
+        <v>3552769.547679118</v>
       </c>
       <c r="AC4">
-        <v>4010292.541625445</v>
+        <v>3508630.279306962</v>
       </c>
       <c r="AE4">
-        <v>1122327.427934796</v>
+        <v>1013391.062806468</v>
       </c>
       <c r="AF4">
-        <v>1202134.572709687</v>
+        <v>1090182.80352448</v>
       </c>
       <c r="AG4">
-        <v>1114455.117740561</v>
+        <v>1011396.250098777</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -938,79 +938,79 @@
         <v>18</v>
       </c>
       <c r="AM4">
+        <v>499525.2</v>
+      </c>
+      <c r="AN4">
         <v>96399.60000000002</v>
       </c>
-      <c r="AN4">
-        <v>630979.2</v>
-      </c>
       <c r="AO4">
-        <v>262907.9999999999</v>
+        <v>254144.4</v>
       </c>
       <c r="AP4">
-        <v>867596.3999999998</v>
+        <v>595924.8</v>
       </c>
       <c r="AQ4">
-        <v>560870.4</v>
+        <v>350544</v>
       </c>
       <c r="AR4">
-        <v>420652.8000000001</v>
+        <v>359307.5999999999</v>
       </c>
       <c r="AS4">
-        <v>613452.0000000001</v>
+        <v>245380.8</v>
       </c>
       <c r="AT4">
-        <v>666033.6</v>
+        <v>166508.4</v>
       </c>
       <c r="AU4">
-        <v>429416.4000000001</v>
+        <v>455707.1999999999</v>
       </c>
       <c r="AV4">
-        <v>122690.4</v>
+        <v>96399.60000000002</v>
       </c>
       <c r="AW4">
-        <v>210326.4000000001</v>
+        <v>297962.4000000001</v>
       </c>
       <c r="AX4">
+        <v>657270</v>
+      </c>
+      <c r="AY4">
+        <v>797487.6000000001</v>
+      </c>
+      <c r="AZ4">
+        <v>306726.0000000001</v>
+      </c>
+      <c r="BA4">
         <v>289198.8</v>
       </c>
-      <c r="AY4">
-        <v>525815.9999999999</v>
-      </c>
-      <c r="AZ4">
-        <v>227853.5999999999</v>
-      </c>
-      <c r="BA4">
-        <v>315489.6</v>
-      </c>
       <c r="BB4">
-        <v>175272</v>
+        <v>289198.8</v>
       </c>
       <c r="BC4">
-        <v>885123.6000000002</v>
+        <v>552106.8000000002</v>
       </c>
       <c r="BD4">
-        <v>262907.9999999999</v>
+        <v>920178</v>
       </c>
       <c r="BE4">
-        <v>604688.4</v>
+        <v>508288.8</v>
       </c>
       <c r="BF4">
-        <v>806251.2</v>
+        <v>902650.8000000003</v>
       </c>
       <c r="BG4">
-        <v>622215.6000000001</v>
+        <v>403125.6</v>
       </c>
       <c r="BH4">
-        <v>420652.8000000001</v>
+        <v>254144.4</v>
       </c>
       <c r="BI4">
-        <v>499525.2</v>
+        <v>96399.60000000002</v>
       </c>
       <c r="BJ4">
-        <v>779960.3999999999</v>
+        <v>911414.3999999998</v>
       </c>
       <c r="BL4">
-        <v>1218490</v>
+        <v>1380675</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -1030,67 +1030,67 @@
     </row>
     <row r="5" spans="1:70">
       <c r="A5">
-        <v>1744.133415424018</v>
+        <v>1642.823930159933</v>
       </c>
       <c r="B5">
-        <v>1705.043865320292</v>
+        <v>1603.734380056219</v>
       </c>
       <c r="C5">
-        <v>1743.942799588239</v>
+        <v>1642.633314324158</v>
       </c>
       <c r="E5">
-        <v>1525.271805202385</v>
+        <v>1444.985362083978</v>
       </c>
       <c r="F5">
-        <v>1482.639979704109</v>
+        <v>1405.306268049825</v>
       </c>
       <c r="G5">
-        <v>1527.892283992929</v>
+        <v>1445.229918443258</v>
       </c>
       <c r="I5">
         <v>1899.221798945178</v>
       </c>
       <c r="K5">
-        <v>6545.969312203911</v>
+        <v>6481.618626529997</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.611664671793404</v>
+        <v>0.6031940068992865</v>
       </c>
       <c r="S5">
-        <v>0.2654496404411912</v>
+        <v>0.2531930917022235</v>
       </c>
       <c r="T5">
-        <v>0.2795386430102833</v>
+        <v>0.2634357528998915</v>
       </c>
       <c r="U5">
-        <v>0.266589313456171</v>
+        <v>0.2564557089993887</v>
       </c>
       <c r="W5">
-        <v>18438373.01576243</v>
+        <v>18840564.80122412</v>
       </c>
       <c r="Y5">
         <v>47480544.97362944</v>
       </c>
       <c r="AA5">
-        <v>4984595.737965411</v>
+        <v>4709298.707900912</v>
       </c>
       <c r="AB5">
-        <v>4869201.035631291</v>
+        <v>4593904.005566793</v>
       </c>
       <c r="AC5">
-        <v>4984106.979412137</v>
+        <v>4708809.949347637</v>
       </c>
       <c r="AE5">
-        <v>1323159.146387612</v>
+        <v>1192361.899602718</v>
       </c>
       <c r="AF5">
-        <v>1361129.850044637</v>
+        <v>1210198.560456315</v>
       </c>
       <c r="AG5">
-        <v>1328709.657833592</v>
+        <v>1207601.194103324</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1099,79 +1099,79 @@
         <v>19</v>
       </c>
       <c r="AM5">
-        <v>718990.148353599</v>
+        <v>927647.8894168891</v>
       </c>
       <c r="AN5">
-        <v>673647.0753078589</v>
+        <v>670439.5896547621</v>
       </c>
       <c r="AO5">
-        <v>620385.0368202159</v>
+        <v>767537.2877434753</v>
       </c>
       <c r="AP5">
-        <v>718908.799230236</v>
+        <v>549007.030536011</v>
       </c>
       <c r="AQ5">
-        <v>385910.8189473996</v>
+        <v>918159.3625721197</v>
       </c>
       <c r="AR5">
-        <v>516114.1666292562</v>
+        <v>394875.3454874092</v>
       </c>
       <c r="AS5">
-        <v>881112.4106965206</v>
+        <v>571571.8154044468</v>
       </c>
       <c r="AT5">
-        <v>589440.0148129098</v>
+        <v>461990.9507895492</v>
       </c>
       <c r="AU5">
-        <v>498300.5813794593</v>
+        <v>374999.3389332685</v>
       </c>
       <c r="AV5">
-        <v>400392.1293808781</v>
+        <v>908540.4679945335</v>
       </c>
       <c r="AW5">
-        <v>404237.9890802303</v>
+        <v>504298.5100213145</v>
       </c>
       <c r="AX5">
-        <v>573890.6169815591</v>
+        <v>802288.4154226859</v>
       </c>
       <c r="AY5">
-        <v>924019.8976957946</v>
+        <v>392646.8190629217</v>
       </c>
       <c r="AZ5">
-        <v>741956.2445689125</v>
+        <v>922449.5480528348</v>
       </c>
       <c r="BA5">
-        <v>840606.0092898227</v>
+        <v>480530.4851741632</v>
       </c>
       <c r="BB5">
-        <v>934110.3985968237</v>
+        <v>541700.9539669447</v>
       </c>
       <c r="BC5">
-        <v>565849.0191581767</v>
+        <v>716670.2531305549</v>
       </c>
       <c r="BD5">
-        <v>923484.5279329927</v>
+        <v>842453.6384208498</v>
       </c>
       <c r="BE5">
-        <v>873137.7255580573</v>
+        <v>781792.2267263802</v>
       </c>
       <c r="BF5">
-        <v>659861.0555920363</v>
+        <v>735911.5248903931</v>
       </c>
       <c r="BG5">
-        <v>568078.3062981189</v>
+        <v>439161.3542207519</v>
       </c>
       <c r="BH5">
-        <v>899230.3506032523</v>
+        <v>340430.7756692068</v>
       </c>
       <c r="BI5">
-        <v>900320.07599146</v>
+        <v>594212.7885540557</v>
       </c>
       <c r="BJ5">
-        <v>679614.5980312757</v>
+        <v>626418.4993878321</v>
       </c>
       <c r="BL5">
-        <v>1458875</v>
+        <v>1092700</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -1191,127 +1191,127 @@
     </row>
     <row r="6" spans="1:70">
       <c r="A6">
-        <v>2314.983331192309</v>
+        <v>2423.55822684401</v>
       </c>
       <c r="B6">
-        <v>2296.758865846492</v>
+        <v>2405.333761498169</v>
       </c>
       <c r="C6">
-        <v>2314.593337629623</v>
+        <v>2423.168233281308</v>
       </c>
       <c r="E6">
-        <v>2048.090083737749</v>
+        <v>2126.644157286269</v>
       </c>
       <c r="F6">
-        <v>2009.763417448216</v>
+        <v>2083.140429832744</v>
       </c>
       <c r="G6">
-        <v>2047.611646994995</v>
+        <v>2121.724809704799</v>
       </c>
       <c r="S6">
-        <v>0.2423332836769975</v>
+        <v>0.2587207697809712</v>
       </c>
       <c r="T6">
-        <v>0.2676725586025671</v>
+        <v>0.2878649678131084</v>
       </c>
       <c r="U6">
-        <v>0.2481252019981637</v>
+        <v>0.267314459325815</v>
       </c>
       <c r="AA6">
-        <v>6611389.563470789</v>
+        <v>6882142.748303919</v>
       </c>
       <c r="AB6">
-        <v>6552956.094238737</v>
+        <v>6823709.279071866</v>
       </c>
       <c r="AC6">
-        <v>6616566.231806388</v>
+        <v>6887319.416639517</v>
       </c>
       <c r="AE6">
-        <v>1602159.742583707</v>
+        <v>1780553.269583719</v>
       </c>
       <c r="AF6">
-        <v>1754046.524155167</v>
+        <v>1964306.851986032</v>
       </c>
       <c r="AG6">
-        <v>1641736.832801189</v>
+        <v>1841080.06606318</v>
       </c>
       <c r="AK6" t="s">
         <v>20</v>
       </c>
       <c r="AM6">
-        <v>105773</v>
+        <v>105331</v>
       </c>
       <c r="AN6">
-        <v>172978</v>
+        <v>178149</v>
       </c>
       <c r="AO6">
-        <v>449469</v>
+        <v>445282</v>
       </c>
       <c r="AP6">
-        <v>272028</v>
+        <v>285693</v>
       </c>
       <c r="AQ6">
-        <v>1476962</v>
+        <v>1558103</v>
       </c>
       <c r="AR6">
-        <v>485055</v>
+        <v>511597</v>
       </c>
       <c r="AS6">
-        <v>22313</v>
+        <v>28496</v>
       </c>
       <c r="AT6">
-        <v>32703</v>
+        <v>24172</v>
       </c>
       <c r="AU6">
-        <v>271278</v>
+        <v>288408</v>
       </c>
       <c r="AV6">
-        <v>30833</v>
+        <v>38146</v>
       </c>
       <c r="AW6">
-        <v>146953</v>
+        <v>161661</v>
       </c>
       <c r="AX6">
-        <v>480697</v>
+        <v>500605</v>
       </c>
       <c r="AY6">
-        <v>1338447</v>
+        <v>1276250.75</v>
       </c>
       <c r="AZ6">
-        <v>24186</v>
+        <v>29942</v>
       </c>
       <c r="BA6">
-        <v>25227</v>
+        <v>33449</v>
       </c>
       <c r="BB6">
-        <v>25140</v>
+        <v>24115</v>
       </c>
       <c r="BC6">
-        <v>102707</v>
+        <v>102159</v>
       </c>
       <c r="BD6">
-        <v>442468.1111111111</v>
+        <v>460082</v>
       </c>
       <c r="BE6">
-        <v>149330</v>
+        <v>148019</v>
       </c>
       <c r="BF6">
-        <v>1364530.75</v>
+        <v>1221798</v>
       </c>
       <c r="BG6">
-        <v>941337</v>
+        <v>920133</v>
       </c>
       <c r="BH6">
-        <v>24512</v>
+        <v>24955</v>
       </c>
       <c r="BI6">
-        <v>23620</v>
+        <v>19408</v>
       </c>
       <c r="BJ6">
-        <v>111999</v>
+        <v>106771</v>
       </c>
       <c r="BL6">
-        <v>1952333.75</v>
+        <v>2732365.5</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -1331,52 +1331,52 @@
     </row>
     <row r="7" spans="1:70">
       <c r="A7">
-        <v>2989.430767282721</v>
+        <v>3279.144257661502</v>
       </c>
       <c r="B7">
-        <v>2932.88602203319</v>
+        <v>3222.599512412021</v>
       </c>
       <c r="C7">
-        <v>2946.462482944435</v>
+        <v>3236.175973323237</v>
       </c>
       <c r="E7">
-        <v>2703.624193725457</v>
+        <v>2939.323901478558</v>
       </c>
       <c r="F7">
-        <v>2629.60056160305</v>
+        <v>2870.583651732652</v>
       </c>
       <c r="G7">
-        <v>2660.734095626111</v>
+        <v>2905.900212430903</v>
       </c>
       <c r="S7">
-        <v>0.2182552247333447</v>
+        <v>0.2370536286677356</v>
       </c>
       <c r="T7">
-        <v>0.2370735476378339</v>
+        <v>0.2513142110893347</v>
       </c>
       <c r="U7">
-        <v>0.2231236360003243</v>
+        <v>0.2349563461665727</v>
       </c>
       <c r="AA7">
-        <v>8608947.654664556</v>
+        <v>9431096.948496401</v>
       </c>
       <c r="AB7">
-        <v>8443296.254748799</v>
+        <v>9265445.548580643</v>
       </c>
       <c r="AC7">
-        <v>8480454.81914969</v>
+        <v>9302604.112981535</v>
       </c>
       <c r="AE7">
-        <v>1878947.805086413</v>
+        <v>2235675.75395828</v>
       </c>
       <c r="AF7">
-        <v>2001682.196870534</v>
+        <v>2328538.138432732</v>
       </c>
       <c r="AG7">
-        <v>1892189.914185151</v>
+        <v>2185705.872220272</v>
       </c>
       <c r="BL7">
-        <v>2266154.75</v>
+        <v>2798229</v>
       </c>
       <c r="BM7">
         <v>0</v>
@@ -1396,52 +1396,52 @@
     </row>
     <row r="8" spans="1:70">
       <c r="A8">
-        <v>1579.105583334</v>
+        <v>1749.660284432708</v>
       </c>
       <c r="B8">
-        <v>1556.582516314475</v>
+        <v>1727.137217413176</v>
       </c>
       <c r="C8">
-        <v>1574.141703783184</v>
+        <v>1744.69640488189</v>
       </c>
       <c r="E8">
-        <v>1408.693317942702</v>
+        <v>1542.812526300575</v>
       </c>
       <c r="F8">
-        <v>1383.744543541935</v>
+        <v>1508.641835804071</v>
       </c>
       <c r="G8">
-        <v>1405.410702848174</v>
+        <v>1538.994469509193</v>
       </c>
       <c r="S8">
-        <v>0.2464886539734649</v>
+        <v>0.270793387045565</v>
       </c>
       <c r="T8">
-        <v>0.2546573691535206</v>
+        <v>0.2908313547860172</v>
       </c>
       <c r="U8">
-        <v>0.2460458770205998</v>
+        <v>0.2709988168594589</v>
       </c>
       <c r="AA8">
-        <v>4549702.313023032</v>
+        <v>5031198.989634418</v>
       </c>
       <c r="AB8">
-        <v>4484184.825003576</v>
+        <v>4965681.501614964</v>
       </c>
       <c r="AC8">
-        <v>4535483.015404834</v>
+        <v>5016979.692016223</v>
       </c>
       <c r="AE8">
-        <v>1121449.999117007</v>
+        <v>1362415.415303329</v>
       </c>
       <c r="AF8">
-        <v>1141930.710333551</v>
+        <v>1444175.878550544</v>
       </c>
       <c r="AG8">
-        <v>1115936.896237317</v>
+        <v>1359595.560744329</v>
       </c>
       <c r="BL8">
-        <v>766641.75</v>
+        <v>1507737</v>
       </c>
       <c r="BM8">
         <v>0</v>
@@ -1461,52 +1461,52 @@
     </row>
     <row r="9" spans="1:70">
       <c r="A9">
-        <v>940.6554037050864</v>
+        <v>791.1293390828807</v>
       </c>
       <c r="B9">
-        <v>933.6731778271067</v>
+        <v>784.1471132049001</v>
       </c>
       <c r="C9">
-        <v>934.9074839091693</v>
+        <v>785.381419286965</v>
       </c>
       <c r="E9">
-        <v>824.5608447614118</v>
+        <v>688.6379995008151</v>
       </c>
       <c r="F9">
-        <v>813.0688174258887</v>
+        <v>675.933008622266</v>
       </c>
       <c r="G9">
-        <v>820.1855795986085</v>
+        <v>683.7772783428074</v>
       </c>
       <c r="S9">
-        <v>0.2864624536914779</v>
+        <v>0.3029076257920482</v>
       </c>
       <c r="T9">
-        <v>0.3026462287345483</v>
+        <v>0.3251729030869444</v>
       </c>
       <c r="U9">
-        <v>0.288204362259949</v>
+        <v>0.3059822240891086</v>
       </c>
       <c r="AA9">
-        <v>2876756.456164221</v>
+        <v>2404062.745133623</v>
       </c>
       <c r="AB9">
-        <v>2853424.791762533</v>
+        <v>2380731.080731935</v>
       </c>
       <c r="AC9">
-        <v>2859020.481150512</v>
+        <v>2386326.770119915</v>
       </c>
       <c r="AE9">
-        <v>824082.7131056032</v>
+        <v>728208.9383835396</v>
       </c>
       <c r="AF9">
-        <v>863578.2522045943</v>
+        <v>774149.2369909219</v>
       </c>
       <c r="AG9">
-        <v>823982.1744581158</v>
+        <v>730173.5725246704</v>
       </c>
       <c r="BL9">
-        <v>556200</v>
+        <v>639384.25</v>
       </c>
       <c r="BM9">
         <v>0</v>
@@ -1526,52 +1526,52 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10">
-        <v>1018.803249083488</v>
+        <v>819.3748597899394</v>
       </c>
       <c r="B10">
-        <v>1002.467428247264</v>
+        <v>803.0390389537278</v>
       </c>
       <c r="C10">
-        <v>1017.959596189476</v>
+        <v>818.5312068959347</v>
       </c>
       <c r="E10">
-        <v>903.7562978208823</v>
+        <v>725.1882933278224</v>
       </c>
       <c r="F10">
-        <v>885.9636713883802</v>
+        <v>707.6643913188477</v>
       </c>
       <c r="G10">
-        <v>903.2950077706453</v>
+        <v>725.5304641044952</v>
       </c>
       <c r="S10">
-        <v>0.2619169224061406</v>
+        <v>0.2672736091638191</v>
       </c>
       <c r="T10">
-        <v>0.2720478980553774</v>
+        <v>0.278240447875184</v>
       </c>
       <c r="U10">
-        <v>0.2637248596586412</v>
+        <v>0.2668760444209564</v>
       </c>
       <c r="AA10">
-        <v>3124073.829204191</v>
+        <v>2502365.732128628</v>
       </c>
       <c r="AB10">
-        <v>3072583.314299042</v>
+        <v>2450875.217223478</v>
       </c>
       <c r="AC10">
-        <v>3122621.063943401</v>
+        <v>2500912.966867838</v>
       </c>
       <c r="AE10">
-        <v>818247.8027147288</v>
+        <v>668816.320673881</v>
       </c>
       <c r="AF10">
-        <v>835889.8322550795</v>
+        <v>681932.6181264495</v>
       </c>
       <c r="AG10">
-        <v>823512.8018555903</v>
+        <v>667433.7600387668</v>
       </c>
       <c r="BL10">
-        <v>503240</v>
+        <v>540557.5</v>
       </c>
       <c r="BM10">
         <v>0</v>
@@ -1591,52 +1591,52 @@
     </row>
     <row r="11" spans="1:70">
       <c r="A11">
-        <v>1603.291274068684</v>
+        <v>1372.36079188895</v>
       </c>
       <c r="B11">
-        <v>1590.301899600164</v>
+        <v>1359.371417420428</v>
       </c>
       <c r="C11">
-        <v>1600.111661260833</v>
+        <v>1369.181179081094</v>
       </c>
       <c r="E11">
-        <v>1419.295150269051</v>
+        <v>1213.539410955297</v>
       </c>
       <c r="F11">
-        <v>1392.002718236536</v>
+        <v>1190.451386599188</v>
       </c>
       <c r="G11">
-        <v>1417.629411151948</v>
+        <v>1210.775640127514</v>
       </c>
       <c r="S11">
-        <v>0.2678969257893359</v>
+        <v>0.2714633056206543</v>
       </c>
       <c r="T11">
-        <v>0.295415365632712</v>
+        <v>0.2937379669562432</v>
       </c>
       <c r="U11">
-        <v>0.2702299285730784</v>
+        <v>0.2742689257037774</v>
       </c>
       <c r="AA11">
-        <v>4833601.276134817</v>
+        <v>4150084.188588349</v>
       </c>
       <c r="AB11">
-        <v>4792412.440492794</v>
+        <v>4108895.352946327</v>
       </c>
       <c r="AC11">
-        <v>4824753.95159119</v>
+        <v>4141236.864044722</v>
       </c>
       <c r="AE11">
-        <v>1294906.922367928</v>
+        <v>1126595.572438204</v>
       </c>
       <c r="AF11">
-        <v>1415752.273370937</v>
+        <v>1206938.567410409</v>
       </c>
       <c r="AG11">
-        <v>1303792.915721165</v>
+        <v>1135812.585786426</v>
       </c>
       <c r="BL11">
-        <v>1583676.5</v>
+        <v>1175971</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -1656,52 +1656,52 @@
     </row>
     <row r="12" spans="1:70">
       <c r="A12">
-        <v>843.7925254308441</v>
+        <v>1063.260573147025</v>
       </c>
       <c r="B12">
-        <v>837.1632905167924</v>
+        <v>1056.631338232968</v>
       </c>
       <c r="C12">
-        <v>840.6216506722421</v>
+        <v>1060.089698388426</v>
       </c>
       <c r="E12">
-        <v>740.001453653323</v>
+        <v>928.9963392814568</v>
       </c>
       <c r="F12">
-        <v>728.2993378410788</v>
+        <v>917.1767550235876</v>
       </c>
       <c r="G12">
-        <v>737.712852165195</v>
+        <v>928.8596549533851</v>
       </c>
       <c r="S12">
-        <v>0.2595413201847503</v>
+        <v>0.2675939531186028</v>
       </c>
       <c r="T12">
-        <v>0.2760279238343548</v>
+        <v>0.281229018115372</v>
       </c>
       <c r="U12">
-        <v>0.2602154986470361</v>
+        <v>0.2641669244617652</v>
       </c>
       <c r="AA12">
-        <v>2422619.965906792</v>
+        <v>3051999.958375856</v>
       </c>
       <c r="AB12">
-        <v>2400152.967043255</v>
+        <v>3029532.959512319</v>
       </c>
       <c r="AC12">
-        <v>2417899.273538578</v>
+        <v>3047279.266007642</v>
       </c>
       <c r="AE12">
-        <v>628769.9842573837</v>
+        <v>816696.7337796066</v>
       </c>
       <c r="AF12">
-        <v>662509.2403778165</v>
+        <v>851992.5795518067</v>
       </c>
       <c r="AG12">
-        <v>629174.8651421474</v>
+        <v>804990.3916773442</v>
       </c>
       <c r="BL12">
-        <v>480457.5</v>
+        <v>605853.5</v>
       </c>
       <c r="BM12">
         <v>0</v>
@@ -1721,52 +1721,52 @@
     </row>
     <row r="13" spans="1:70">
       <c r="A13">
-        <v>1406.418449203563</v>
+        <v>1552.636337163906</v>
       </c>
       <c r="B13">
-        <v>1397.500131486669</v>
+        <v>1543.718019447007</v>
       </c>
       <c r="C13">
-        <v>1402.090289558331</v>
+        <v>1548.308177518677</v>
       </c>
       <c r="E13">
-        <v>1225.986097563273</v>
+        <v>1349.754931269545</v>
       </c>
       <c r="F13">
-        <v>1210.728900881724</v>
+        <v>1333.750991761552</v>
       </c>
       <c r="G13">
-        <v>1223.117825962024</v>
+        <v>1347.064759952281</v>
       </c>
       <c r="S13">
-        <v>0.271993026578143</v>
+        <v>0.2762290777662276</v>
       </c>
       <c r="T13">
-        <v>0.2883962229472253</v>
+        <v>0.2929833196883125</v>
       </c>
       <c r="U13">
-        <v>0.2751843463768736</v>
+        <v>0.2786233749220894</v>
       </c>
       <c r="AA13">
-        <v>3996476.348555914</v>
+        <v>4402847.918047731</v>
       </c>
       <c r="AB13">
-        <v>3968600.421702803</v>
+        <v>4374971.991194621</v>
       </c>
       <c r="AC13">
-        <v>3987230.467240795</v>
+        <v>4393602.036732613</v>
       </c>
       <c r="AE13">
-        <v>1087013.697691689</v>
+        <v>1216194.61994728</v>
       </c>
       <c r="AF13">
-        <v>1144529.372005854</v>
+        <v>1281793.817523587</v>
       </c>
       <c r="AG13">
-        <v>1097223.409981615</v>
+        <v>1224160.227539007</v>
       </c>
       <c r="BL13">
-        <v>1454374.5</v>
+        <v>1672946</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -1786,52 +1786,52 @@
     </row>
     <row r="14" spans="1:70">
       <c r="A14">
-        <v>1828.02077967506</v>
+        <v>1729.103468983177</v>
       </c>
       <c r="B14">
-        <v>1825.868126073752</v>
+        <v>1726.950815381853</v>
       </c>
       <c r="C14">
-        <v>1810.870003621839</v>
+        <v>1711.95269292996</v>
       </c>
       <c r="E14">
-        <v>1600.663205402918</v>
+        <v>1526.413565410099</v>
       </c>
       <c r="F14">
-        <v>1585.246874834639</v>
+        <v>1511.827534386391</v>
       </c>
       <c r="G14">
-        <v>1589.042915876581</v>
+        <v>1510.238334158707</v>
       </c>
       <c r="S14">
-        <v>0.2648510880000847</v>
+        <v>0.2467237951772915</v>
       </c>
       <c r="T14">
-        <v>0.2848341407838019</v>
+        <v>0.2669944961099025</v>
       </c>
       <c r="U14">
-        <v>0.2641173001755326</v>
+        <v>0.2519099148499541</v>
       </c>
       <c r="AA14">
-        <v>5182254.23728136</v>
+        <v>4947238.166440483</v>
       </c>
       <c r="AB14">
-        <v>5165064.241334478</v>
+        <v>4930048.170493604</v>
       </c>
       <c r="AC14">
-        <v>5131384.604684739</v>
+        <v>4896368.533843864</v>
       </c>
       <c r="AE14">
-        <v>1372525.673037017</v>
+        <v>1220601.376070141</v>
       </c>
       <c r="AF14">
-        <v>1471186.635273646</v>
+        <v>1316295.727078486</v>
       </c>
       <c r="AG14">
-        <v>1355287.447951626</v>
+        <v>1233443.780434602</v>
       </c>
       <c r="BL14">
-        <v>1833960</v>
+        <v>1049310</v>
       </c>
       <c r="BM14">
         <v>0</v>
@@ -1851,52 +1851,52 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15">
-        <v>3096.401341200947</v>
+        <v>3155.932953547146</v>
       </c>
       <c r="B15">
-        <v>3039.856595951443</v>
+        <v>3099.388208297676</v>
       </c>
       <c r="C15">
-        <v>3053.433056862676</v>
+        <v>3112.964669208893</v>
       </c>
       <c r="E15">
-        <v>2794.637806776827</v>
+        <v>2830.076049696859</v>
       </c>
       <c r="F15">
-        <v>2719.800612422523</v>
+        <v>2759.125305250277</v>
       </c>
       <c r="G15">
-        <v>2748.076865026921</v>
+        <v>2794.962772579131</v>
       </c>
       <c r="S15">
-        <v>0.2223640595246616</v>
+        <v>0.2356755267061026</v>
       </c>
       <c r="T15">
-        <v>0.241973279416379</v>
+        <v>0.2519190302566965</v>
       </c>
       <c r="U15">
-        <v>0.2294801941698988</v>
+        <v>0.2345310987514004</v>
       </c>
       <c r="AA15">
-        <v>8916511.896310616</v>
+        <v>9073761.509877006</v>
       </c>
       <c r="AB15">
-        <v>8750860.496394858</v>
+        <v>8908110.109961249</v>
       </c>
       <c r="AC15">
-        <v>8788019.06079575</v>
+        <v>8945268.67436214</v>
       </c>
       <c r="AE15">
-        <v>1982711.782063567</v>
+        <v>2138463.523045824</v>
       </c>
       <c r="AF15">
-        <v>2117474.412027906</v>
+        <v>2244122.460321312</v>
       </c>
       <c r="AG15">
-        <v>2016676.320440181</v>
+        <v>2097943.690824636</v>
       </c>
       <c r="BL15">
-        <v>2348040</v>
+        <v>2659041.5</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -1916,52 +1916,52 @@
     </row>
     <row r="16" spans="1:70">
       <c r="A16">
-        <v>955.9688859262515</v>
+        <v>1057.89148162712</v>
       </c>
       <c r="B16">
-        <v>930.9610967838435</v>
+        <v>1032.883692484706</v>
       </c>
       <c r="C16">
-        <v>958.1032683023316</v>
+        <v>1060.025864003202</v>
       </c>
       <c r="E16">
-        <v>837.8396111870057</v>
+        <v>926.6469699281249</v>
       </c>
       <c r="F16">
-        <v>813.1867311306016</v>
+        <v>902.5391802142212</v>
       </c>
       <c r="G16">
-        <v>840.8691317579292</v>
+        <v>929.6146888154061</v>
       </c>
       <c r="S16">
-        <v>0.2818942244852312</v>
+        <v>0.2829068854770815</v>
       </c>
       <c r="T16">
-        <v>0.2897371176329189</v>
+        <v>0.2884186307498872</v>
       </c>
       <c r="U16">
-        <v>0.280419041669479</v>
+        <v>0.2815413276472666</v>
       </c>
       <c r="AA16">
-        <v>2763276.685433095</v>
+        <v>3057952.96792901</v>
       </c>
       <c r="AB16">
-        <v>2690226.593641855</v>
+        <v>2984902.87613777</v>
       </c>
       <c r="AC16">
-        <v>2768798.58420047</v>
+        <v>3063474.866696385</v>
       </c>
       <c r="AE16">
-        <v>778951.7382782825</v>
+        <v>865115.9500921941</v>
       </c>
       <c r="AF16">
-        <v>779458.4990212168</v>
+        <v>860901.6004570557</v>
       </c>
       <c r="AG16">
-        <v>776423.845557306</v>
+        <v>862494.7811837333</v>
       </c>
       <c r="BL16">
-        <v>559650</v>
+        <v>663080</v>
       </c>
       <c r="BM16">
         <v>0</v>
@@ -1981,52 +1981,52 @@
     </row>
     <row r="17" spans="1:70">
       <c r="A17">
-        <v>1188.72852494282</v>
+        <v>1153.496492934797</v>
       </c>
       <c r="B17">
-        <v>1173.408507299838</v>
+        <v>1138.176475291807</v>
       </c>
       <c r="C17">
-        <v>1190.558786647197</v>
+        <v>1155.326754639177</v>
       </c>
       <c r="E17">
-        <v>1060.706493799126</v>
+        <v>1026.407626546938</v>
       </c>
       <c r="F17">
-        <v>1041.213097215939</v>
+        <v>1006.16492461074</v>
       </c>
       <c r="G17">
-        <v>1064.342209950736</v>
+        <v>1026.672897272462</v>
       </c>
       <c r="S17">
-        <v>0.2493088802788369</v>
+        <v>0.256196202392749</v>
       </c>
       <c r="T17">
-        <v>0.2631287758447013</v>
+        <v>0.2730328862786288</v>
       </c>
       <c r="U17">
-        <v>0.2484391185158213</v>
+        <v>0.2628431962283093</v>
       </c>
       <c r="AA17">
-        <v>3645945.669181629</v>
+        <v>3525007.316924032</v>
       </c>
       <c r="AB17">
-        <v>3596720.132937996</v>
+        <v>3475781.780680399</v>
       </c>
       <c r="AC17">
-        <v>3654373.773990536</v>
+        <v>3533435.421732939</v>
       </c>
       <c r="AE17">
-        <v>908966.6323411465</v>
+        <v>903093.4880025905</v>
       </c>
       <c r="AF17">
-        <v>946400.5656359661</v>
+        <v>949002.7316538414</v>
       </c>
       <c r="AG17">
-        <v>907889.399137544</v>
+        <v>928739.4599146098</v>
       </c>
       <c r="BL17">
-        <v>837567</v>
+        <v>1029800</v>
       </c>
       <c r="BM17">
         <v>0</v>
@@ -2046,52 +2046,52 @@
     </row>
     <row r="18" spans="1:70">
       <c r="A18">
-        <v>971.8350238552566</v>
+        <v>883.9971652184713</v>
       </c>
       <c r="B18">
-        <v>962.0929930038637</v>
+        <v>874.2551343670767</v>
       </c>
       <c r="C18">
-        <v>969.4503142493636</v>
+        <v>881.6124556125769</v>
       </c>
       <c r="E18">
-        <v>856.9646263280611</v>
+        <v>779.6668545841931</v>
       </c>
       <c r="F18">
-        <v>845.6427315282306</v>
+        <v>769.8614095135522</v>
       </c>
       <c r="G18">
-        <v>858.4298996677996</v>
+        <v>779.9405842570352</v>
       </c>
       <c r="S18">
-        <v>0.274664455653075</v>
+        <v>0.2756210528596911</v>
       </c>
       <c r="T18">
-        <v>0.2845930266172287</v>
+        <v>0.2816442074606705</v>
       </c>
       <c r="U18">
-        <v>0.2697290587820438</v>
+        <v>0.2723000793719893</v>
       </c>
       <c r="AA18">
-        <v>2961745.475352193</v>
+        <v>2696243.019902116</v>
       </c>
       <c r="AB18">
-        <v>2930853.848620676</v>
+        <v>2665351.3931706</v>
       </c>
       <c r="AC18">
-        <v>2955109.981944473</v>
+        <v>2689607.526494396</v>
       </c>
       <c r="AE18">
-        <v>813486.208770568</v>
+        <v>743141.3399110144</v>
       </c>
       <c r="AF18">
-        <v>834100.5673517113</v>
+        <v>750680.7807337275</v>
       </c>
       <c r="AG18">
-        <v>797079.034027305</v>
+        <v>732380.342943924</v>
       </c>
       <c r="BL18">
-        <v>635110.5</v>
+        <v>505732.5</v>
       </c>
       <c r="BM18">
         <v>0</v>
@@ -2111,52 +2111,52 @@
     </row>
     <row r="19" spans="1:70">
       <c r="A19">
-        <v>1573.407936341677</v>
+        <v>1550.395709251401</v>
       </c>
       <c r="B19">
-        <v>1559.119624426301</v>
+        <v>1536.107397336034</v>
       </c>
       <c r="C19">
-        <v>1569.910362253032</v>
+        <v>1546.898135162761</v>
       </c>
       <c r="E19">
-        <v>1385.616976626062</v>
+        <v>1364.574909589275</v>
       </c>
       <c r="F19">
-        <v>1364.112927457648</v>
+        <v>1344.467684571385</v>
       </c>
       <c r="G19">
-        <v>1383.349361745102</v>
+        <v>1359.951744009586</v>
       </c>
       <c r="S19">
-        <v>0.2780436954405606</v>
+        <v>0.2799139425945512</v>
       </c>
       <c r="T19">
-        <v>0.2951634029287323</v>
+        <v>0.2953843572864372</v>
       </c>
       <c r="U19">
-        <v>0.2810174173708728</v>
+        <v>0.2859022404661954</v>
       </c>
       <c r="AA19">
-        <v>4781551.245601107</v>
+        <v>4699034.770941761</v>
       </c>
       <c r="AB19">
-        <v>4736243.526394883</v>
+        <v>4653727.051735538</v>
       </c>
       <c r="AC19">
-        <v>4771819.188603119</v>
+        <v>4689302.713943772</v>
       </c>
       <c r="AE19">
-        <v>1329480.178265348</v>
+        <v>1315325.349123192</v>
       </c>
       <c r="AF19">
-        <v>1397965.756349893</v>
+        <v>1374638.174163408</v>
       </c>
       <c r="AG19">
-        <v>1340964.304542023</v>
+        <v>1340682.152140735</v>
       </c>
       <c r="BL19">
-        <v>1664601</v>
+        <v>1703917.25</v>
       </c>
       <c r="BM19">
         <v>0</v>
@@ -2176,52 +2176,52 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20">
-        <v>1789.562951101972</v>
+        <v>1622.526920540309</v>
       </c>
       <c r="B20">
-        <v>1775.008412799979</v>
+        <v>1607.972382238319</v>
       </c>
       <c r="C20">
-        <v>1777.366970843043</v>
+        <v>1610.330940281389</v>
       </c>
       <c r="E20">
-        <v>1562.778731058208</v>
+        <v>1428.468818110435</v>
       </c>
       <c r="F20">
-        <v>1531.168624498153</v>
+        <v>1406.542251617446</v>
       </c>
       <c r="G20">
-        <v>1552.058121650341</v>
+        <v>1417.838825147028</v>
       </c>
       <c r="S20">
-        <v>0.2690416524117127</v>
+        <v>0.2515498730065353</v>
       </c>
       <c r="T20">
-        <v>0.2963227564175884</v>
+        <v>0.2669652413950751</v>
       </c>
       <c r="U20">
-        <v>0.2738424743994061</v>
+        <v>0.2551755330052958</v>
       </c>
       <c r="AA20">
-        <v>5074914.786188964</v>
+        <v>4658029.879014555</v>
       </c>
       <c r="AB20">
-        <v>5028251.457385588</v>
+        <v>4611366.550211177</v>
       </c>
       <c r="AC20">
-        <v>5039442.836161545</v>
+        <v>4622557.928987137</v>
       </c>
       <c r="AE20">
-        <v>1365363.459924913</v>
+        <v>1171726.824526758</v>
       </c>
       <c r="AF20">
-        <v>1489985.331813253</v>
+        <v>1231074.584238302</v>
       </c>
       <c r="AG20">
-        <v>1380013.495848838</v>
+        <v>1179563.683377149</v>
       </c>
       <c r="BL20">
-        <v>1724996</v>
+        <v>710062.5</v>
       </c>
       <c r="BM20">
         <v>0</v>
@@ -2241,52 +2241,52 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21">
-        <v>2031.614015511118</v>
+        <v>1869.372531730638</v>
       </c>
       <c r="B21">
-        <v>2005.736395884474</v>
+        <v>1843.494912104006</v>
       </c>
       <c r="C21">
-        <v>2030.145737133317</v>
+        <v>1867.904253352847</v>
       </c>
       <c r="E21">
-        <v>1783.948963494794</v>
+        <v>1636.083176811271</v>
       </c>
       <c r="F21">
-        <v>1746.564393417281</v>
+        <v>1600.390465391052</v>
       </c>
       <c r="G21">
-        <v>1779.945603442196</v>
+        <v>1637.081133244174</v>
       </c>
       <c r="S21">
-        <v>0.2561461620295352</v>
+        <v>0.263981123652738</v>
       </c>
       <c r="T21">
-        <v>0.2755057692489483</v>
+        <v>0.2829922769502779</v>
       </c>
       <c r="U21">
-        <v>0.2631260711380475</v>
+        <v>0.2648396949166623</v>
       </c>
       <c r="AA21">
-        <v>5782463.913601627</v>
+        <v>5324177.955702887</v>
       </c>
       <c r="AB21">
-        <v>5705228.141243903</v>
+        <v>5246942.183345163</v>
       </c>
       <c r="AC21">
-        <v>5780284.76571044</v>
+        <v>5321998.807811701</v>
       </c>
       <c r="AE21">
-        <v>1481155.938543343</v>
+        <v>1405482.479273586</v>
       </c>
       <c r="AF21">
-        <v>1571823.267794149</v>
+        <v>1484844.11549131</v>
       </c>
       <c r="AG21">
-        <v>1520943.620460498</v>
+        <v>1409476.540607691</v>
       </c>
       <c r="BL21">
-        <v>1732405.5</v>
+        <v>1675970.5</v>
       </c>
       <c r="BM21">
         <v>0</v>
@@ -2306,52 +2306,52 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22">
-        <v>2618.349780796837</v>
+        <v>2211.687955580626</v>
       </c>
       <c r="B22">
-        <v>2572.170054740018</v>
+        <v>2165.508229523843</v>
       </c>
       <c r="C22">
-        <v>2617.606361155883</v>
+        <v>2210.944535939682</v>
       </c>
       <c r="E22">
-        <v>2318.177130897814</v>
+        <v>1979.538855119118</v>
       </c>
       <c r="F22">
-        <v>2266.207315574831</v>
+        <v>1922.735300944371</v>
       </c>
       <c r="G22">
-        <v>2327.566016600436</v>
+        <v>1977.819130077261</v>
       </c>
       <c r="S22">
-        <v>0.2401352215190714</v>
+        <v>0.2199055691474088</v>
       </c>
       <c r="T22">
-        <v>0.2526930114026454</v>
+        <v>0.2357484217126496</v>
       </c>
       <c r="U22">
-        <v>0.2361829652835829</v>
+        <v>0.2228084579219271</v>
       </c>
       <c r="AA22">
-        <v>7459191.457954907</v>
+        <v>6357716.158037618</v>
       </c>
       <c r="AB22">
-        <v>7323888.785280086</v>
+        <v>6222413.485362796</v>
       </c>
       <c r="AC22">
-        <v>7456896.676942581</v>
+        <v>6355421.377025291</v>
       </c>
       <c r="AE22">
-        <v>1791214.593109166</v>
+        <v>1398097.19021094</v>
       </c>
       <c r="AF22">
-        <v>1850695.512330488</v>
+        <v>1466924.158417786</v>
       </c>
       <c r="AG22">
-        <v>1761191.968973594</v>
+        <v>1416041.636459056</v>
       </c>
       <c r="BL22">
-        <v>1703073</v>
+        <v>762118.5</v>
       </c>
       <c r="BM22">
         <v>0</v>
@@ -2371,52 +2371,52 @@
     </row>
     <row r="23" spans="1:70">
       <c r="A23">
-        <v>2564.51604173605</v>
+        <v>2523.741444493086</v>
       </c>
       <c r="B23">
-        <v>2577.400045026234</v>
+        <v>2536.625447783269</v>
       </c>
       <c r="C23">
-        <v>2524.325336493217</v>
+        <v>2483.550739250273</v>
       </c>
       <c r="E23">
-        <v>2296.966319682084</v>
+        <v>2252.126278192284</v>
       </c>
       <c r="F23">
-        <v>2291.147023815763</v>
+        <v>2241.991512259974</v>
       </c>
       <c r="G23">
-        <v>2258.437445475027</v>
+        <v>2217.540574688881</v>
       </c>
       <c r="S23">
-        <v>0.2385785388356167</v>
+        <v>0.2450709623967341</v>
       </c>
       <c r="T23">
-        <v>0.2555748732952162</v>
+        <v>0.2668138554295907</v>
       </c>
       <c r="U23">
-        <v>0.2426943443494954</v>
+        <v>0.2458833933632025</v>
       </c>
       <c r="AA23">
-        <v>7386939.351017719</v>
+        <v>7262982.068334601</v>
       </c>
       <c r="AB23">
-        <v>7420923.965057408</v>
+        <v>7296966.682374289</v>
       </c>
       <c r="AC23">
-        <v>7268330.96185465</v>
+        <v>7144373.679171529</v>
       </c>
       <c r="AE23">
-        <v>1762365.196833126</v>
+        <v>1779946.005356983</v>
       </c>
       <c r="AF23">
-        <v>1896601.70210298</v>
+        <v>1946931.813465554</v>
       </c>
       <c r="AG23">
-        <v>1763982.817302452</v>
+        <v>1756682.843689443</v>
       </c>
       <c r="BL23">
-        <v>2309743.25</v>
+        <v>2604825</v>
       </c>
       <c r="BM23">
         <v>0</v>
@@ -2436,52 +2436,52 @@
     </row>
     <row r="24" spans="1:70">
       <c r="A24">
-        <v>939.2903443963307</v>
+        <v>673.2199183169566</v>
       </c>
       <c r="B24">
-        <v>938.1047818471478</v>
+        <v>672.03435576778</v>
       </c>
       <c r="C24">
-        <v>927.7734285820072</v>
+        <v>661.7030025026346</v>
       </c>
       <c r="E24">
-        <v>818.3595603728847</v>
+        <v>583.0737071430158</v>
       </c>
       <c r="F24">
-        <v>810.2950614641023</v>
+        <v>577.1042691060708</v>
       </c>
       <c r="G24">
-        <v>807.0964135188792</v>
+        <v>571.2765392995772</v>
       </c>
       <c r="S24">
-        <v>0.2937344022269542</v>
+        <v>0.3056690432293392</v>
       </c>
       <c r="T24">
-        <v>0.3121577772014171</v>
+        <v>0.3241292397579383</v>
       </c>
       <c r="U24">
-        <v>0.2981237649077679</v>
+        <v>0.3136049296489405</v>
       </c>
       <c r="AA24">
-        <v>2714077.903981004</v>
+        <v>1942841.872173951</v>
       </c>
       <c r="AB24">
-        <v>2709150.025669963</v>
+        <v>1937913.993862909</v>
       </c>
       <c r="AC24">
-        <v>2680018.10854434</v>
+        <v>1908782.076737287</v>
       </c>
       <c r="AE24">
-        <v>797218.0507232449</v>
+        <v>593866.6162133097</v>
       </c>
       <c r="AF24">
-        <v>845682.2501182978</v>
+        <v>628134.5895470547</v>
       </c>
       <c r="AG24">
-        <v>798977.0885402334</v>
+        <v>598603.4688903553</v>
       </c>
       <c r="BL24">
-        <v>686000</v>
+        <v>623122.5</v>
       </c>
       <c r="BM24">
         <v>0</v>
@@ -2501,52 +2501,52 @@
     </row>
     <row r="25" spans="1:70">
       <c r="A25">
-        <v>1120.606809597021</v>
+        <v>911.8966092548847</v>
       </c>
       <c r="B25">
-        <v>1097.762648076228</v>
+        <v>889.0524477340933</v>
       </c>
       <c r="C25">
-        <v>1121.909212063864</v>
+        <v>913.1990117217249</v>
       </c>
       <c r="E25">
-        <v>998.1346424405291</v>
+        <v>809.3306342128827</v>
       </c>
       <c r="F25">
-        <v>973.1816861450438</v>
+        <v>786.912075279291</v>
       </c>
       <c r="G25">
-        <v>1002.18059928916</v>
+        <v>812.3580103166029</v>
       </c>
       <c r="S25">
-        <v>0.2534399865243195</v>
+        <v>0.2615543558311682</v>
       </c>
       <c r="T25">
-        <v>0.2656544718707051</v>
+        <v>0.2692845365003416</v>
       </c>
       <c r="U25">
-        <v>0.2500787963579488</v>
+        <v>0.2594634141439708</v>
       </c>
       <c r="AA25">
-        <v>3442848.241327669</v>
+        <v>2792249.720687368</v>
       </c>
       <c r="AB25">
-        <v>3372069.644978656</v>
+        <v>2721471.124338355</v>
       </c>
       <c r="AC25">
-        <v>3447417.935118449</v>
+        <v>2796819.414478148</v>
       </c>
       <c r="AE25">
-        <v>872555.4118873616</v>
+        <v>730325.077014144</v>
       </c>
       <c r="AF25">
-        <v>895805.380648041</v>
+        <v>732850.0903165174</v>
       </c>
       <c r="AG25">
-        <v>862126.127757227</v>
+        <v>725672.3140246418</v>
       </c>
       <c r="BL25">
-        <v>502665.75</v>
+        <v>538758</v>
       </c>
       <c r="BM25">
         <v>0</v>
@@ -2566,52 +2566,52 @@
     </row>
     <row r="26" spans="1:70">
       <c r="A26">
-        <v>1519.467715895625</v>
+        <v>1543.413729703482</v>
       </c>
       <c r="B26">
-        <v>1507.77727887392</v>
+        <v>1531.723292681805</v>
       </c>
       <c r="C26">
-        <v>1516.606064368543</v>
+        <v>1540.552078176413</v>
       </c>
       <c r="E26">
-        <v>1339.874847593274</v>
+        <v>1356.985061562251</v>
       </c>
       <c r="F26">
-        <v>1319.149804711834</v>
+        <v>1336.673878699904</v>
       </c>
       <c r="G26">
-        <v>1338.748667484291</v>
+        <v>1356.849557471757</v>
       </c>
       <c r="S26">
-        <v>0.2760399886431542</v>
+        <v>0.2811918142721943</v>
       </c>
       <c r="T26">
-        <v>0.2949192702925489</v>
+        <v>0.2997679190267964</v>
       </c>
       <c r="U26">
-        <v>0.2778464082060872</v>
+        <v>0.2809339602484863</v>
       </c>
       <c r="AA26">
-        <v>4607004.677186721</v>
+        <v>4684704.385738758</v>
       </c>
       <c r="AB26">
-        <v>4569934.725108901</v>
+        <v>4647634.433660939</v>
       </c>
       <c r="AC26">
-        <v>4599042.085097457</v>
+        <v>4676741.793649495</v>
       </c>
       <c r="AE26">
-        <v>1271717.518769581</v>
+        <v>1317300.525554787</v>
       </c>
       <c r="AF26">
-        <v>1347761.814413697</v>
+        <v>1393211.702575824</v>
       </c>
       <c r="AG26">
-        <v>1277827.324532963</v>
+        <v>1313855.593149561</v>
       </c>
       <c r="BL26">
-        <v>1623600</v>
+        <v>1547936.25</v>
       </c>
       <c r="BM26">
         <v>0</v>
